--- a/news_data/2019_10.xlsx
+++ b/news_data/2019_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,105 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>與, 제주도와 예산협의…"태풍·관광 피해 지원 예산 조기집행"</t>
+  </si>
+  <si>
+    <t>제주도에 中 대규모 관광객 연달아 유치…기업 포상관광</t>
+  </si>
+  <si>
+    <t>밴쿠버 여행업자들, 제주도 온다···제주관광공사 팸투어</t>
+  </si>
+  <si>
+    <t>금강산에 제주도보다 넓은 관광특구 만들겠다는 김정은 속내는?</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 가을여행의 완성 갈...</t>
+  </si>
+  <si>
+    <t>11월 제주도 관광 10선...놓치지 말아야 할 여행코스는?</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 허브동산 핑크뮬리 관광객 인파 ...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 회장 보궐선거 후보 단독 출마</t>
+  </si>
+  <si>
+    <t>[동정] 제주도·제주관광협회, 어린이 관광 아카데미 수료식</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 안전책임 시스템 개발, 단말기 300대 대여</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 또 가고싶은 효리의단골집</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 맛집 '하동까스', 관광객들에게 주목받아</t>
+  </si>
+  <si>
+    <t>"오라관광단지는 제주도의 재앙...철회해야"</t>
+  </si>
+  <si>
+    <t>한국관광공사, 中 대형 인센티브 단체들 제주도로 '입국 중'</t>
+  </si>
+  <si>
+    <t>[동정] 제주도관광협회 등반동호회, 관광상품 개발 현장체험</t>
+  </si>
+  <si>
+    <t>10월~11월 제주도 여행 맛집, 서귀포 가볼만한 곳 중문관광단지 카페바나나</t>
+  </si>
+  <si>
+    <t>"오라관광단지 개발은 자본검증 문제 아니라 제주도의 재앙"</t>
+  </si>
+  <si>
+    <t>“한국경제, 7개월째 경기부진…‘NO JAPAN’에 제주도 관광 증가”</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제35대 회장 입후보자 공고</t>
+  </si>
+  <si>
+    <t>제주도 관광객 기초통계부터 주먹구구식 '신뢰' 하락</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 내주부터 제35대 회장 입후보 접수</t>
+  </si>
+  <si>
+    <t>[특징주] 롯데관광개발, 제주도 카지노업 조례 개정안 부결에 상승세</t>
+  </si>
+  <si>
+    <t>맑은가을날씨 찾기 좋은 제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식...</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 보궐 선거 내달 7일 실시</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치요리의 진수보여주는 효리의단...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월 베스트 관광인 ㈜에버그린 강윤미 팀장 선정</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거 다음 달 7일 실시</t>
+  </si>
+  <si>
+    <t>"제주도관광협회 공적 역할 의구심"</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 제27회 부산영도다리축제 연계 관광홍보부스 운영</t>
+  </si>
+  <si>
+    <t>제주도, 해수욕장 관광객 해파리 쏘임사고 방치</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 공석된 회장 보궐선거 절차 돌입</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 관광통역안내사 면접대비반 수강생 모집</t>
+  </si>
+  <si>
     <t>제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식당’ 밥도둑 갈치조림</t>
   </si>
   <si>
-    <t>[특징주] 롯데관광개발, 제주도 카지노업 조례 개정안 부결에 상승세</t>
-  </si>
-  <si>
     <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 연예인들의 숨은 단골집</t>
   </si>
   <si>
@@ -52,34 +145,124 @@
     <t>효리의단골집 제주도 중문 관광단지 맛집 ’이조은식당’ 제주갈치의 3단변신</t>
   </si>
   <si>
-    <t>제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식당’ 밥도둑 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>[특징주] 롯데관광개발, 제주도 카지노업 조례 개정안 부결에 상승세 - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 특징주 [특징주] 롯데관광개발, 제주도 카지노업 조례 개정안 부결에 상승세 입력 2019-10-28 13:58 이신철 기자																								camus16@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲제주 드림타워 복합리조트 전경. (사진=롯데관광개발)롯데관광개발이 카지노 이전 변경에 대한 문턱을 높이는 내용의 조례가 부결되면서 주가가 강세를 보이고 있다. 롯데관광개발은 28일 오후 1시 55분 기준 전 거래일보다 8.02% 오른 1만2800원에 거래되고 있다.이날 제주도의회 상임위원회는 외국인 전용 카지노 영업장 소재지를 이전 변경하는 방식으로 규모를 키우는 것을 막기 위해 발의됐던 '제주도 카지노업 관리 및 감독에 관한 조례' 개정안을 부결 처리했다. 관련 뉴스 롯데관광개발, 해외 투자자 대상 전환사채 715억원 발행 롯데관광개발, 최대주주 등 소유주식수 460만주 감소 [전일 주요 공시] 롯데관광개발ㆍ인스코비ㆍ이더블유케이 등 개정안은 기존 카지노 사업권을 매입한 후 이전 변경을 통한 영업장 변경은 신규 허가와 동일한 절차를 밟도록 했다. 카지노 대형화에 따른 부작용을 막기 위함이다.이번 부결로 제주드림타워 복합리조트 연내 완공과 함께 카지노의 확장 이전을 추진해온 롯데관광개발은 사업 추진에 탄력이 붙을 전망이다. 회사는 기존 '파라다이스 제주롯데 카지노'를 149억 원에 인수한 데 이어, 기존 영업장을 제주드림타워로 4배 확장 이전을 추진해 왔다. 장중 매매동향은 잠정치이므로 실제 매매동향과 차이가 발생할 수 있습니다.이로 인해 일어나는 모든 책임은 투자자 본인에게 있습니다. #롯데관광개발 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 10 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 금융·증권 최신 뉴스 NH농협생명, 보장 확대한 '농업인NH안전보험' 개정 출시 "최근 7년간 불법사금융 피해 신고 4만7371만 건…매년 2배씩 폭증" [인사] ABL생명 롯데손보, ‘let:hero 의료진보험’ 출시…"업(業) 통한 사회공헌 전략" 웰컴저축은행, 보통예금 상품 기본금리 연 0.5%p 인상 [특징주] 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 [이시각 상한가] 오픈엣지테크놀로지(▲3150) - 4일 오전 10시10분 공모주 청약일정 한눈에…미래에셋증권, ‘공모주 투자플래너’ 서비스 오픈 삼성증권, ‘상금 8000만원’ 글로벌 실전투자대회 ‘G6 투자 챌린지’ 개최 [테마 리포트]바이오시밀러 관련주 테마 상승세(+5.02%) 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:17 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.삼성출판사 4,150 3.디아이씨 510 4.에이프로젠제약 76 5.KR모터스 91 1.라닉스 1,520 2.오픈엣지테크놀로지 3,150 3.칩스앤미디어 3,200 4.유안타제7호스팩 645 5.오토앤 2,000 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,188,000 +1.27% 이더리움 1,906,000 +1.71% 비트코인 캐시 167,000 -0.6% 리플 656.5 +0.08% 위믹스 2,593 +1.93% 에이다 614.1 -0.03% 이오스 1,697 -0.47% 트론 88.23 -0.68% 스텔라루멘 167.2 -3.74% 비트코인에스브이 69,400 -0.43% 체인링크 10,740 +3.27% 샌드박스 1,196 +1.44% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 연예인들의 숨은 단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도·관광협회, 전국체육대회 연계 관광 홍보관 운영 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광협회, 전국체육대회 연계 관광 홍보관 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광협회, 전국체육대회 연계 관광 홍보관 운영 기자명 이세연 기자 입력 2019.10.07 11:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 도관광협회는 서울시에서 개최하는 제100회 전국체육대회와 연계해 지난 4일부터 오는 10일까지 제주관광 홍보관을 운영하고 있다.제주관광 홍보관에서는 제58회 탐라문화제, 2019 제주올레걷기축제 등과 제주의 가을·겨울철 즐길거리를 홍보하고 제주 캐릭터 열쇠고리 만들기와 골프퍼팅 핀볼게임 등 시민 참여형 체험 이벤트를 진행한다.도와 관광협회는 2019 제주여행 소셜 콘텐츠 공모전 진행 및 메가쇼 2019 시즌2 등 주요 박람회 참가 홍보 등을 지속해 제주 방문을 유도할 예정이다. 이세연 기자 leese010@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 편집팀 iheadline@hanmail.net 승인 2019.10.14 18:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 이경용 위원장. ⓒ헤드라인제주 도민 경제에 가장 많은 영향을 주고 있는 관광분야에서는 관광산업에 대한 집행부의 실행과제와 실적을 검토하면서, 특히, 지속적으로 1천 4백만명 가까운 관광객 유입에도 불구하고 어려움을 겪고 있는 관광산업의 현실과 질적관광을 표방하며 내국인 관광객을 포함한 관광 다변화 정책의 문제점 등을 다루고자 한다.또한 대규모 개발사업의 대한 도민 이익 차원의 검토가 지속적으로 이루어질 것이다. 문화분야에서는 생활문화를 추구하는 정부기조에 따른 제주도 문화정책의 변화와 도민 및 예술인에 대한 현실성 있는 대응을 점검하고자 한다. 또한, 양 행정시가 진행 중인 문화도시선정사업에 대한 도의회 지원차원의 검토가 있을 것이다. 체육분야에서는 도민 생활 밀접성이 높아지는 생활체육 및 전문체육에 대한 전반적 검토를 통해 체육 인프라 및 정책의 적정성을 검토하며, 평화협력 분야에서는 제주포럼을 비록한 제주의 평화협력사업에 대한 논의도 진행할 예정이다.제주의 가치와 고유성을 지키는 세계유산분야에서는 한라산을 비롯한 주요 문화재에 대한 보존 및 활용에 대한 검토가 있을 예정이다. 단순히 보존적 측면을 넘어 현시대에 맞게 도민과 호흡하는 살아있는 정책 논의를 하고자 한다. 제주의 문화, 관광, 체육 및 세계유산은 제주의 가치를 말해주는 기본이자 가치이며, 제주 경제 및 제주다움의 기본이 되는 핵심 분야로 이번 행정사무감사를 통해서 변화하는 시대가치에 대한 적정한 정책변화와 도민체감을 최우선적으로 점검하고자 한다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회, 16일 행정사무감사 돌입...고강도 감사 예고 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 옥돔구이 서비스로 가볼만한 곳 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-04 10:19 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 옥돔구이 서비스로 가볼만한 곳 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 옥돔구이 서비스로 가볼만한 곳 곽종현 기자 승인 2019.10.10 11:30 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도에는 360여 개 오름이 있지만, 규모나 형태 면에서 산방산과 성산일출봉이 가장 독특하다. 제주도 형성 시기를 볼 때 초기에 해당하는 70~120만 년 전에 점성이 강한 조면암질 마그마가 현재 서귀포 안덕해안 즉 산방산이 있는 곳을 따라 집중적으로 분출되었다. 이 당시 만들어진 종상화산으로 현재 서귀포 앞 바다에 있는 것이 문섬, 범섬, 섶섬이고 육지에 있는 것이 지금의 산방산이다. 높이가 395m나 되는 산방산은 제주도에서 가장 평탄한 사계리 한가운데 우뚝 솟아 있어 멀리서도 잘 보인다. 천연기념물 제376호로 지정된 산방산은 전형적인 종모양의 산이며, 남쪽 중앙에 해식동굴인 산방굴이 있다. 산방산은 관광지로 알려진 제주도를 대표하는 손꼽히는 명소로 자리매김하고 있다. 제주도 가볼만한 곳으로는 용두암, 섭지코지, 우도, 천지연폭포, 하도리 철새도래지 등 다양한 볼거리가 있다. 또한 10월 제주도 가볼만한 곳으로는 산굼부리, 영주산, 금백조로, 마노르블랑 등이 있어 가을 정취를 만끽하기에 좋으며, 다양한 맛집도 있어 먹거리 탐방도 가능하다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 문어해물갈치조림이 대표 메뉴다. 이 요리는 제주 인근 바다에서 잡은 싱싱한 은갈치를 통으로 넣어 요리하며, 문어, 생전복, 새우 등의 해산물이 함께 요리되어 나오기 때문에 해산물을 푸짐하게 먹을 수 있다. 게다가 약초로 숙성한 천연 양념을 사용하여 해산물의 비린 냄새를 잡기 때문에 건강에도 좋아 양념과 밥을 비벼 먹는 이들이 많다. 비린 냄새가 없고 맛이 고소하고 담백하여 누구나 좋아하는 메뉴다. 제주 중문 맛집 기원뚝배기는 다른 식당과 달리 식당 입구에 수족관을 두고 있다. 횟집에나 있을 법한 수족관을 둔 것은 해산물 요리 주문이 들어오면 살아 있는 신선한 재료를 사용하기 위해서며, 요리의 맛을 좋게 하려면 신선한 재료를 사용하는 것이 필수이기 때문이다. 문어해물갈치조림에는 옥돔구이와 성게국을 서비스로 제공하며, 통갈치조림정식 A세트를 주문하면 옥돔구이와 성게국을 하나씩 추가로 더 제공하고 있다. 또한 서귀포 맛집 기원뚝배기에서는 갈치조림만 주문해도 생전복이 서비스로 제공되어 나온다. 밑반찬 맛도 좋다. 제주도 맛집 기원뚝배기는 매일 직접 밑반찬을 만들고 있다. 국내산 재료를 구입하여 전라도 엄마의 손맛과 정성을 담아 만든 밑반찬 맛이 좋아 여행 기간 동안 재방문하는 손님도 많다. 제주 맛집 기원뚝배기는 가족이 먹는다는 마음으로 정성을 담아 요리하고 있으며, 오전 7시부터 오후 10시까지 연중무휴로 손님을 맞이하고 있다. 그리고 여러 가지 아침 식사 메뉴를 준비하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있는데 특히 전복뚝배기는 10가지 메뉴를 넣고 끓여 맛이 시원하고 얼큰하여 해장 메뉴로 많이 찾고 있다. 한편, 기원뚝배기는 무료 셔틀버스 운행을 통해 손님들에게 픽업 서비스를 영업시간 동안 제공하고 있다. 또한 식당 옆에는 전용 주차장도 마련되어 있어 주차가 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' "尹, '대통령 임기 5년이 뭐가 대단하다고' 고스란히 돌려준다" 경북도, '경주 통일전' 내년부터 직접 관리 최신기사 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' [포토]충남 천안천 일대에 지난밤 폭우 흔적들 '잡초, 쓰레기 뒤엉켜 지저분' [포토]충남 천안천 일대에 지난밤 폭우 흔적들 '잡초, 쓰레기 뒤엉켜 지저분' 인천항만공사, 인천지역 포워더 지원 본격화 인천항만공사, 인천지역 포워더 지원 본격화 [포토]충남 천안천서 교량 표지 통째로 뽑힌 채 방치 [포토]충남 천안천서 교량 표지 통째로 뽑힌 채 방치 대전학생교육문화원, 초 ‧ 중 ‧ 고 대상 '우리지역 작가 특강' 운영 대전학생교육문화원, 초 ‧ 중 ‧ 고 대상 '우리지역 작가 특강' 운영 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
-  </si>
-  <si>
-    <t>제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 투데이단신 투데이단신 제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 김태연 기자/조해리 기자 승인 2019.10.09 12:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 천고마비의 계절 가을을 맞이하여 볼거리, 즐길거리, 먹을거리가 가득한 추자도에서 무료승선이벤트가 진행된다. 제주관광공사(사장 박홍배)와 씨월드고속훼리주식회사(대표이사 이혁영)는 오는 10월 19일 제주↔추자 간 운항선인 ‘퀸스타2호’에 제주도민 100명을 대상으로 무료 승선 이벤트를 실시한다고 밝혔다. 씨월드고속훼리주식회사의 ▲제주↔추자↔우수영 구간을 운항하고 있는 ‘퀸스타 2호(정원 444명)’는 제주~추자를 1시간에 운항하는 쾌속선으로 이번 무료 승선 이벤트는 제주↔추자 구간만 적용된다. 가을을 맞이하여 볼거리, 즐길거리, 먹을거리가 가득한 추자도를 널리 알리고자 여객선사와 공동으로 마련한 이번 행사에는 추자도를 찾는 제주도민에게 특별한 혜택이 제공된다. 10월 19일 추자도 방문을 원하는 제주도민 선착순 100명에게 무료 승선의 기회가 주어진다. 퀸스타 2호의 제주출항 시각은 오전 9시 30분이며, 제주로 돌아오는 해당 여객선의 추자도 출항 시각은 오후 4시 30분(제주도착 오후 5시 30분)이다.(현지 기상 악화 시 연기 및 취소 될 수 있음) 추자도 무료승선 이벤트와 함께 10월 19일 추자도를 방문하는 관광객 및 도민들 대상으로 다양한 프로그램이 마련되어 운영된다. 우선 지난 6월, 8월에 이어서 이번 10월에 추자도 가족 낚시대회가 개최된다. 이번 무료 승선 이벤트에는 누구나(단체 및 추자 도서민 제외) 신청 가능하며, 10월 8일 10시부터 씨월드고속훼리 제주사업본부로 예약하면 된다. 이와 관련, 추자면지역주민관광협의회 황상일 위원장은 “천고마비의 계절 가을을 맞이하여 추자도에서 다양한 즐길거리를 즐기고, 맛있는 추자도의 음식을 마음껏 즐기시기를 바란다” 고 밝혔다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자/조해리 기자 다른기사 보기 [관련기사] LG전자, 고성능 노트북 울트라기어17로 만든 ‘엘라’ 공개하며 디지털캠페인 진행 아파트멘터리, ‘라이프구스’ 모델로 방송인 김나영 발탁 한세실업, 세계 1위 섬유 단과대 윌슨 칼리지와 산학협력 MOU 체결 현대HDS, 아마존웹서비스에 망연계솔루션 등록 한국지방행정연구원, 개원 35주년 기념세미나 개최 낙원악기상가, 로맨틱 영화와 재즈 콘서트 개최 [빅데이터 분석]“걸그룹 개인 브랜드평판 2019년 9월 빅데이터 분석결과... 1위 마마무 화사, 2위 소년시대 태연, 3위 레드벨벳 아이린” 예스24, 창립 20주년 맞아 한글날 예스24 서체 무료 배포 현대자동차, 두산퓨얼셀과 수소연료전지 분산발전시스템 실증 위한 상호협력 MOU 체결 LG전자, 2019년 3분기 잠정실적 발표 많이 본 뉴스 1[시황] 이더리움피오더블유(ETHW) 가격 상승세..이더리움 머지로 에어드랍 코인 2팀스토리 연토큰, 글로벌 거래소 비트마트(Bit Mart) 상장 3트론 저스틴 선, 부산 UDC에서 웹 3.0과 미래 블록체인 생태계 발표 4일부 셀시우스 주주, 선순위채권자 자격 요구 5후프클럽(HoopClub), 프로농구단 팬 커뮤니티 멤버십 NFT 완판 6두나무 ‘UDC 2022’ 폐막…이틀간 3,000명 찾았다 7크리버스×이승훈 작가, 콜라보 NFT 전시회 이태원 카페서 개최 8체인 링크(LINK), 스테이킹이 도입되는 확대 계획 ‘Economics 2.0’이 발표 9영화 속 소품, 좋아하는 작가의 한정판 작품을 소장할 수 있는 기회 10ENS 도메인, 250만개 돌파 최신기사 테더사 “USDT 준비자산 58% 이상이 미 단기 국채” 미 SEC, 킴 카다시안을 암호화폐 불법 광고로 기소 크립토 '공포·탐욕 지수' 20... 투심 위축 BNB체인, 150만 달러 규모 빌더 지원금 제공 FTX 거래소, 독자적인 DXY 무기한 선물 거래 시작 제네시스 글로벌 트레이딩, 그레이스케일 투자상품 운용 중단 바이낸스 : 첫 번째 LUNC 수수료 소각이 완료 이더리움, 보유자 수익성이 50% 이상으로 회복 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
-  </si>
-  <si>
-    <t>효리의단골집 ‘이조은식당’ 칼칼한 갈치조림 제공하는 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+    <t>與, 제주도와 예산협의…"태풍·관광 피해 지원 예산 조기집행" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 與, 제주도와 예산협의…"태풍·관광 피해 지원 예산 조기집행" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 與, 제주도와 예산협의…"태풍·관광 피해 지원 예산 조기집행" 송고시간2019-10-30 16:59 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 설승은 기자 기자 페이지 4·3특별법 개정안 처리도 거듭 약속…"피해보상·진상규명 위해 노력" 더불어민주당 제주도당 예산정책간담회 (서울=연합뉴스) 하사헌 기자 = 더불어민주당 이해찬 대표와 오영훈 제주도당 위원장이 30일 오후 국회 당대표실에서 열린 제주특별자치도당 예산정책간담회에서 기념촬영하고 있다. 앞줄 왼쪽부터 김두관 참좋은지방정부위원회 위원장, 오영훈 제주도당 위원장, 이해찬 대표, 박광온 최고위원, 조정식 정책위의장. 2019.10.30 toadboy@yna.co.kr (서울=연합뉴스) 설승은 김여솔 기자 = 더불어민주당 지도부는 30일 국회에서 제주도당과 예산정책간담회를 열고 전폭적인 예산·정책 지원 방안을 논의했다. 민주당은 연이은 태풍으로 인한 농작물 피해와 일본의 경제보복 조치 등에 따른 관광업 피해 등 제주 지역 현안 해결을 약속했다. 나아가 제주 4·3 사건 특별법 개정안을 처리하겠다고 강조했다. 이해찬 대표는 "중국의 사드(고고도미사일방어체계·THAAD) 보복과 한일 경제전쟁 여파로 관광 산업이 침체돼있고, 가을 태풍 피해로 농업 경쟁력이 약화한 것을 감안해 필요한 예산을 내년 예산안에 최대한 반영하고 조기 집행될 수 있도록 노력하겠다"고 밝혔다. 광고 이 대표는 "다행히 이달 들어 중국의 대형 인센티브 관광단 발길이 이어져 관광 회복 기대감이 오르고 있다"며 "완전한 회복세에 접어들 때까지 당정청 공조를 강화하겠다"고 말했다. 그러면서 "제주도의 숙원사업인 공공 하수처리시설 현대화 사업의 예비타당성조사가 면제됐는데, 조기 예산 투입으로 '청정 제주'에 대한 의지를 높여나갈 것"이라며 "다른 사업 예산도 심사 과정에서 최대한 반영하겠다"고 했다. 또한 이 대표는 "4·3 사건 피해 보상과 진상규명 등 사태의 완전한 해결을 통해 도민 상처를 치유하고 국민 통합의 전기를 마련하도록 각별히 노력하겠다"고 강조했다. 제주도당 예산정책간담회에서 인사말하는 이해찬 (서울=연합뉴스) 하사헌 기자 = 더불어민주당 이해찬 대표(오른쪽)가 30일 오후 국회 당대표실에서 열린 제주특별자치도당 예산정책간담회에서 인사말을 하고 있다. 왼쪽은 오영훈 제주도당 위원장. 2019.10.30 toadboy@yna.co.kr 조정식 정책위의장은 "내년도 정부 예산안에 반영된 제주도 예산은 전년 대비 10.6% 증가했는데, 예산 심의 과정에서 추가로 필요한 예산은 적극 반영하겠다"고 말했다. 조 정책위의장은 "제주도는 중국 사드 사태와 한일관계 악화에 따른 관광객 감소, 태풍과 장마 피해 때문에 지역경제의 근간인 관광 산업과 1차 산업에 어려움이 있다"며 "이와 관련해 꼭 필요한 사업 예산을 당이 최대한 뒷받침하겠다"고 덧붙였다. 아울러 참석자들은 제주 4·3 특별법 개정안 처리를 위해 힘을 모으겠다고 입을 모았다. 박광온 최고위원은 "4·3을 기억하고 치유하기 위한 모든 사업은 100% 국비로 하는 것이 상식적이고 정의로운 방향"이라며 "4·3 복합센터 건립과 4·3 평화공원 완성을 국가가 주도해야 한다"고 강조했다. 박 최고위원은 "4·3 사건 왜곡·날조, 희생자와 유족 모욕 등을 금지하는 개정안과 완전한 진상규명과 유가족 지원책을 담은 법안 통과를 위해 노력하겠다"며 "이것이 4·3 사건이 대한민국 역사에서 정당히 평가받고 자리매김하는 길"이라고 덧붙였다. 윤호중 사무총장은 "김대중 정부 때 4·3 특별법을, 노무현 정부 때 제주특별자치도를 만들며 민주당과 제주도민은 굳게 연대해왔다"며 "4·3 사건 관련 도민들의 정신적 피해와 명예를 제대로 회복할 수 있도록 20대 국회 임기 내 특별법을 개정하는 데 온 힘을 기울여야 한다"고 말했다. 이날 간담회에 무소속인 원희룡 지사를 비롯해 제주도 관계자는 참석하지 않았다. ses@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/10/30 16:59 송고 #제주도 #더불어민주당 #예산정책간담회 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 24 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 10 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도에 中 대규모 관광객 연달아 유치…기업 포상관광 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방국제생활/문화연예스포츠여행국내해외바이크관광레저호텔ㆍ크루즈이벤트TVBBC 홈 &gt; 여행 &gt; 국내 제주도에 中 대규모 관광객 연달아 유치…기업 포상관광 10월 초부터 2개사 4000여 명 규모로 방한 (서울=뉴스1) 윤슬빈 여행전문기자					| 2019-10-21 08:31 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 지난 2016년 제주시 건입동 제주항여객국제터미널에서 중국인 크루즈 관광객들이 제주 관광을 위해 입국하고 있다 © News1 이석형 기자 이번 가을에 접어들면서 중국 대형 인센티브(기업 포상) 관광객들이 속속들이 제주도를 찾고 있다.   21일 한국관광공사(사장 안영배)는 중국 후난비티푸무역회사(湖南碧缇福贸易有限公司) 종업원 2700여 명의 단체 인센티브 관광객을 제주도로 유치했다고 밝혔다. 이들은 지난 20일부터 오는 26일까지 여행을 즐기게 된다.  중국 후난(湖南)성에 본사를 둔 비티푸무역회사는 생활용품 제조 및 판매 기업으로 이번 인센티브 관광을 통해 최초로 제주도를 방문하며, 오설록뮤지엄, 중문해수욕장 및 우도 등을 관광한다. 23일엔 제주 월드컵경기장에서 한류가수 현아와 황치열 공연이 포함된 대형 기업행사를 개최한다. 아울러 공사에 따르면 10월 초부터 11월 말까지 중국핑안생명보험(中国平安人寿股份有限公司) 인센티브 관광단체 1500여 명이 순차적으로 제주도를 방문하고 있다. 정익수 한국관광공사 미팅인센티브팀장은 "기존 수도권을 방문하는 인센티브 단체와 달리 제주도로 입국해 제주도에서 전 일정을 진행하기 때문에 제주지역 경제 활성화에도 큰 도움이 될 것으로 기대한다"며 "향후 지방공항과 연계한 지원프로그램 개발 및 홍보 마케팅을 펼칠 것"이라고 밝혔다. seulbin@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>밴쿠버 여행업자들, 제주도 온다···제주관광공사 팸투어 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 밴쿠버 여행업자들, 제주도 온다···제주관광공사 팸투어 등록 2019.10.22 14:25:19 작게 크게 제주관광공사【제주=뉴시스】배상철 기자 = 제주관광공사가 한국관광공사 토론토지사, 대한항공 밴쿠버지점과 함께 24일까지 캐나다 밴쿠버에서 아시아 여행상품을 취급하는 여행업계를 초청, 팸투어를 한다. 지난 7월 캐나다 주요도시에서 개최한 설명회의 후속조치다. 한라산 트레킹과 술 만들기, 다도 등을 체험하고 신규 관광시설을 둘러보는 일정이다. 아웃도어 레포츠와 어드벤처 목적지를 선호하는 캐나다 관광객을 겨냥한 여행사 등 다양한 상품 개발이 가능한 여행업계를 선발해 향후 지속적인 상품개발을 유도할 수 있을 것으로 공사는 기대하고 있다. 아울러 제주도와 한국관광공사 토론토지사, 여행업계와 추가 협의를 통해 구체적인 상품 출시 시기와 프로모션 방안을 마련한다는 구상이다. 제주관광공사 관계자는 “캐나다는 홍콩과 대만, 필리핀, 인도 등 다양한 이민 인구로 구성된 국가로 고국방문과 연계해 제주방문을 유도할 예정”이라며 “제주의 다양한 콘텐츠를 활용한 상품 개발을 위한 여행업계와 협의를 강화하겠다”고 전했다. 한편 지난해 우리나라를 찾은 캐나다 관광객은 19만2259명으로 2010년 이후 60%가량 늘었다. 올해는 20만명을 돌파할 전망이다. bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 복지시스템 개발인력 대거 이탈에 안정화 시일 걸릴 듯 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>금강산에 제주도보다 넓은 관광특구 만들겠다는 김정은 속내는?-국민일보 시사 시사 &gt; 전체기사 금강산에 제주도보다 넓은 관광특구 만들겠다는 김정은 속내는? 입력 : 2019-10-23 16:00/수정 : 2019-10-23 17:11 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 김정은 북한 국무위원장은 금강산에 설치된 현대아산 시설들을 철거하도록 지시하면서 금강산과 원산 일대에 걸친 대규모 관광 단지 개발에 대한 의지를 드러냈다. 김 위원장은 지난해 현정은 현대아산 회장 등 우리 측 주요 인사들이 참석한 금강산 관광 20주년 남북 공동 행사에서 “백두산 관광까지 개발하겠다”며 관광 개발에 대한 포부를 드러냈던 것으로 전해졌다.노동신문과 조선중앙통신 등 북한 관영매체들은 23일 “보기만 해도 기분이 나빠지는 너절한 남측시설들을 남측의 관계부문과 합의하여 싹들어내도록 하고 우리 식으로 건설해야한다”는 김 위원장의 말을 전했다. 또 “금강산과 원산 갈마 해안관광지구, 마식령 스키장이 하나로 연결된 문화관광지구로 세계적인 명승지답게 잘 꾸려야 한다고 말씀하셨다”고 전했다.이 같은 발언에 대한 다양한 해석이 나오는 가운데, 대규모 관광 단지를 개발하는데 관심을 기울여왔던 김 위원장의 계획에 관심이 쏠리고 있다. 현 회장과 함께 금강산 20주년 남북 공동 행사에 참석했었던 김종대 정의당 수석대변인은 CBS 라디오에 출연해 “김 위원장이 금강산 관광 특구 개발에 얼마나 심혈을 기울였는가, 금강산 관광 재개 문제가 잘 풀리지 않는 것에 대한 상실감이 얼마나 큰가를 드러내는 대목”이라고 분석했다.김 수석대변인은 “김 위원장이 현 회장에게 ‘내금강도 가져가시고, 백두산도 가져가시라. 백두산 관광까지 개발하겠다’고 말했다”고 밝혔다. 김 위원장은 집권 이후 원산을 관광지구로 지정하고 인근에 마식령 스키장을 짓는 등 내금강 개발을 해왔다. 김 수석대변인은 “내금강은 우리가 아직 가보지 못한 곳으로, 외금강보다 몇 배가 더 크다”고 설명했다.김 수석대변인은 “원산과 금강산에 이르는 제주도보다 면적이 넓은 세계적 관광 특구를 만들겠다는 포부를 현 회장에게 전했는데도 반응이 없으니 약이 오른 것”이라고 했다. 김 수석대변인은 김 위원장 발언 중 “금강산에 남녘 동포들이 오면 언제든지 환영할 것” “남측 시설들을 남측의 관계 부문과 합의하여 싹 들어내도록 할 것”에 유념해야한다고 강조했다. 대규모 관광 사업 개발 계획에 남측이 파트너로 응하지 않으면 북한 독자사업으로 가겠다는 의지 표명이라는 것이다. 김 수석대변인은 “김 위원장이 개발에 욕심을 내는 것 같다. 우리가 반응을 보이지 않는다면 독자개발에 나설 것”이라고 내다봤다.이가현 기자 hyun@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ [단독] ‘마스크 민원’ 뛰었는데… 업체는 “이정근 모른다” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 황당 ‘과태료’ 추적해보니… ‘번호판’ 같은 차가 또? ‘밧줄이 툭’…30층 아파트 외벽청소 노동자, 또 추락사 ‘尹퇴진’ 집회 간 野김용민… “5년 못 채우게 해야” ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] 생방송 중 러 미사일 ‘슉’… BBC기자, 급히 대피 [영상] [단독] 文정부 때 靑파견 감사원 직원, 박근혜정부의 1.5배 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 월즈 우승자 ‘크라운’ 이민호 젠지 아카데미 강사 합류 ‘여순특별법’ 시행 후 첫 합동추념식, 19일 광양서 개최 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 가을여행의 완성 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>11월 제주도 관광 10선...놓치지 말아야 할 여행코스는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 11월 제주도 관광 10선...놓치지 말아야 할 여행코스는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 11월 제주도 관광 10선...놓치지 말아야 할 여행코스는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.10.23 14:53 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 11월 제주 관광 10선 발표 제주관광공사(사장 박홍배)는 23일 '깊어진 계절 짙어진 감동, 11월 제주는 코삿하다 마음에 흡족하여 기분이 유쾌하고 흐뭇하다는 의미의 제주어'라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 다양한 분야에서 놓치지 말아야 할 11월 제주 관광 추천 10선을 발표했다. 1. 바람 타고 물살 헤치며 내가 왔다 : 최남단 방어축제 모슬포의 강한 물살을 헤치며 통통하게 살 오른 방어들이 돌아오면, 그 풍성함을 나누는 축제가 시작된다. 제주를 대표하는 축제 중 하나로 매년 성황리에 열리는 최남단 방어축제의 올해 행사는 11월 21일부터. 아슬아슬한 방어와의 추격전 끝 짜릿한 손맛으로 지켜보는 마음마저 짜릿한 방어 맨손잡기, 싱싱한 방어를 저렴하게 득템하고 즉석에서 맛보는 현장 경매. 누구나 낚시왕이 될 수 있는 가두리 방어낚시와 릴낚시. 여기에 소라 잡기와 불턱 체험, 보말 까기 같은 다양한 프로그램에 가요제, 대방어 해체 쇼, 건강체크 등 부대행사들도 풍성. 축제의 흥을 누린 뒤에도 즐길 거리는 넉넉하다. 대정성지와 추사유배지에서 우리 역사를, 송악산의 비경 품은 제주 자연의 매력을 다시 한 번 확인하면서 여행은 더욱 알차고 떠올릴수록 흡족해진다.-최남단 방어축제 : 2019/11/21~24 모슬포항 일원 www.bangeofestival.com-대정성지 : 서귀포시 대정읍 보성리, 인성리, 안성리 일대-추사유배지 : 서귀포시 대정읍 추사로 44-송악산 : 서귀포시 대정읍 상모리 179-42. 11월 제주에선 귤캉스가 한창! :제주의 귤, 귤빛 예로부터 귤림추색이라 했다. 돌담너머 진초록 잎 사이로 반짝이는 열매, 신천목장에 널린 귤껍질이 제주의 진짜 가을 색. 본격적으로 시작된 귤캉스 시즌, 제주 감귤의 경제, 문화, 환경적 가치를 알리고 다채로운 경험을 제공하는 감귤박람회가 11월 8일부터 서귀포농업기술센터 일원에서 열린다. 제주감귤박물관에서는 감귤의 역사와 문화부터 세계 각지의 감귤나무를 비롯해 바오밥나무, 파인애플, 구아바, 망고 등 독특한 식생을 만날 수 있으며 감귤을 활용한 쿠키, 피자, 과즐만들기나 족욕 체험이 가능. 제주에 ‘내 귤나무’가 살고 있다면? 감귤나무를 공유하면 이듬해 내 나무의 열매를 먹을 수 있고 수확의 기쁨도 누릴 수 있다. 특별한 시골체험을 위한 아늑한 공간도 마련돼 있다니 내 귤나무가 살아갈 농장을 찾아 직접 둘러보고 찜! 하자. 비록 몸은 떠날지라도 마음뿌리 한 가닥 제주에 내릴지도.-2019 감귤박람회 : 11/8~12 서귀포농업기술센터 일원 www.citrus-expo.com-감귤박물관 : 서귀포시 효돈순환로 441-엉클리틀(감귤나무 공유) : SNS ‘엉클리틀’검색 후 문의, 방문가능3. 손으로 한 땀 한 땀, 옛사람의 지혜 담긴 제주의 공예품들 햇볕을 가리는 실용성부터 신분을 드러내고 멋을 내는 용도로 쓰이던 옛 모자, 갓의 본고장은 바로 우리 제주다. 말 꼬리털이나 갈기털로 갓모자를 만들고 실처럼 가는 대나무살로 양태를 만들던 공예는 이제 국가중요무형문화재 4호 갓일 양태보유자 장순자 장인과 전수자의 손끝에서 전해지는 중. 갓의 역사와 변천사, 작품을 만나고 선비체험을 원한다면 갓전시관을 찾을 것. 벼가 귀했던 제주에서 지푸라기 대신 억새와 띠를 이용한 풀 공예품 맹탱이는 제주식 바구니요, 대나무 용기 차롱은 요즘의 도시락 역할을 맡곤 했다. 장인이 한 땀 한 땀 만든 공예품을 가만히 보고 있자니, 자연스럽고 오래된 멋이 요즘 감성과 찰떡이요 한창 인기를 끌고 있는 라탄 바구니와도 많이 닮아있다. 어쩌면 제주의 전통공예품 맹탱이와 차롱 역시 훌륭한 생활용품 혹은 장식품이 되지 않을까 기대하게 되는 이유. -갓 전시관 : 제주시 조천읍 교래리 457-1(일·월요일 휴관, 그 외 휴관 시 SNS 별도 공지)-맹탱이, 차롱 볼 수 있는 곳 : 도내 일부 민속 오일장(대정-1일,6일/제주시-2일,7일)4. 내딛는 걸음걸음 추억이 방울방울 : 소소하지만 특별한, 제주의 산책로 특별히 뭘 해야만 여행일까? 숙소를 벗어나, 집을 나와 잠시 자연 속을 걸으며 풍경의 한 부분이 되는 것도 나만의 소소한 여행이 된다. 서귀포 이중섭거리를 지나 천지연폭포 사이를 잇는 칠십리 시공원에서 자연과 어우러지는 조형물, 철따라 피고 지는 꽃과 열매를 눈에 담으며 걷다 보면 어느덧 지나온 걸음만큼 추억도 겹겹이 쌓인다. 필요한 건 그저 여유로운 마음과 시간뿐! 수십 년 전 제주 최고의 신혼여행 명소가 문을 닫은 지 십여 년 만에 독특한 카페로 태어나 인기몰이 중이다. 긴 복도를 지닌 하얀 건물에 서귀포 앞바다를 품은 파노라마 뷰, 주상절리 전망 가능한 외부 산책로까지. 커피 한 잔 값으로 이 모두를 누리는 것은 물론이요, 이제는 희미해진 부모님 세대의 추억 소환은 공짜라는 사실. -칠십리 시공원(주차장) : 서귀포시 서홍동 572-허니문 하우스 : 서귀포시 칠십리로 228-135. 고마운 지구별, 오래오래 빛나도록 지속가능환경교육센터, 세이브제주바다 인간의 욕심으로 하루하루 지쳐가는 나의 별 지구. 그런 지구를 위해 기꺼이 내 시간을 내어주는 여행이 여기 있다. 제주도 지속가능환경교육센터는 자원절약과 폐기물 자원화의 소중함을 알리고 문화로 정착시키기 위한 곳. 쓰레기 매립장과 재활용품 선별장, 음식물 쓰레기 자원화센터와 에코센터 등을 둘러보는 환경기초교육 프로그램은 쓰레기 분리가 놀이로, 자전거 페달을 돌려 친환경 전기를 만드는 체험으로 이어지며 제주를 넘어 지구를 지키는 마음도 깨운다. 마치 플래시몹처럼 함께 모여 바다를 청소하는 봉사는 어떨까. 사전 신청이나 가입 없이 그저 정해진 시간에 정해진 장소를 찾으면 된다니, 마음만 먹으면 얼마든 흐뭇한 여행이 마련될 것. 야외활동인 만큼 날씨의 영향을 받으니 SNS를 통한 공지를 반드시 확인하자.-지속가능환경교육센터 : 제주시 송이길 226 www.jejueco.or.kr-세이브제주바다(비치클린) : SNS ‘세이브제주바다’검색, 월 단위 장소?시간 공지 확인6. 허브향 머금은 마음 미소 짓는 곳 : 표선면 세화 3리 주민 대부분이 귤 농사를 짓는 작고 아담한 마을 표선면 세화 3리는 허브마을로 불린다. 오랫동안 정성으로 가꿔온 허브가 이곳의 자랑이기 때문. 쓰레기와 잡초 무성하던 마을길을 향기로 채우자는 아이디어가 주민들의 꾸준한 노력을 입어 지금의 모습을 갖추었다고. 마을의 옛 이름 ‘강왓’을 내건 허브쉼팡에서는 허브 아로마캔들과 허브비누를 만들어 볼 수 있고, 버려진 빈병을 활용한 업사이클링 체험은 물론 다양한 허브제품도 만날 수 있다. 마을주민 해설사와 함께 산담부터 감귤원, 농가를 둘러보며 마을의 진짜 모습에 가까워지는 시간도 기대할만하고, 허브미래공원과 세화3리 국가정원을 산책하며 지친 몸과 마음을 리프레시 할 수도 있다. 여기에 라벤더와 로즈마리 흐드러진 마을 풍경과 짙은 향기 품을 봄날의 허브축제도 벌써부터 기다려진다는 사실.-세화 3리 : 서귀포시 표선면 세화3리7. 이름은 거칠어도 발걸음은 순하디 순한 까끄래기오름 동부 중산간의 유명한 오름들 사이, 독특한 이름의 까끄래기 오름이 있다. 억새군락으로 잘 알려진 산굼부리를 지나 동쪽으로 약 2km. 까끄래기 오름을 알리는 버스정류장 덕에 대중교통을 이용하는 여행자들도 흡족하고, 넉넉한 주차공간에 운전자들도 흡족. 높이 50미터 정도의 낮은 오름을 오르다보면 땀이 날 때 쯤 정상에 도착하는 성취감을 얻고, 멀리 웅장한 한라산을 배경삼아 오밀조밀한 오름 군락을 마주하는 기쁨도 누릴 수 있다. 조릿대와 억새가 군락을 이룬 분화구를 내려다보기에도, 유명세만큼 약간의 비용부담이 따르는 가까운 억새명소를 전체적으로 조망하기에도 좋은 곳. 단, 유명세와 편의시설은 정비례하는 법이요 화장실은 따로 없으니 낯선 이름만큼 누구의 방해 없이 자연 그대로를 누리고 싶은 이들이 오르기에 좋다는 것도 분명히 알아두자. -까끄래기오름 : 제주시 조천읍 교래리 1288. 예술이 피어 더 아름다운 제주 ; 기당미술관, 아트제주2019 눌(쌓아놓은 볏짚 단) 형상의 외관과 서까래 구조의 인테리어로 특별한 감성 담은 기당미술관은 제주출신 재일교포 사업가 기당 강구범 선생에 의해 지어지고 기증된 국내최초 시립 미술관. 빠르게 변화하는 현대미술의 흐름을 지역에 전하기 위해 다양한 작품을 소장하고 폭풍의 화가 변시지 화백의 작품과 기당선생의 형 강용범의 서예작품이 상시 전시중이다. 제주도내 최대 규모의 아트페어 아트제주 2019가 11월 28일부터 나흘간 마련된다. 김성오를 비롯한 제주작가 특별전을 통해 제주미술의 흐름도 살펴보고, 갤러리로 꾸며진 호텔 객실에서 로버트 인디애나, 제프 쿤스, 이왈종 등 국내?외 유수 작가의 작품 전시와 판매가 이뤄진다. 그뿐만 아니라 함께 진행되는 '아트제주위크' 기간에는 도내 여러 문화예술 기관들의 무료입장 또는 입장료 할인 이벤트와 다양한 프로그램으로 제주가 예술로 물들 예정. -아트제주2019 : 11월/28~12/1 메종 글래드 제주-기당미술관 : 서귀포시 남성중로 153번길 159. 자연에 깃든 과학, 놀이가 되다 : 제주항공우주박물관, 번개과학체험관 우주와 비행 물체에 대한 신비 그 이상, 체험과 경험이 기다리는 곳이 있으니 바로 제주항공우주박물관이다. 비행의 원리, 비행기와 우주선의 역사, 비행 시뮬레이터에서 조종사 되어보기는 물론, 우주비행사가 느끼는 중력도 간접 체험하자. 번쩍번쩍 하늘을 가르는 번개도 이제 두렵지 않다. 번개를 테마로 한 세계 최초 상설 체험관 번개과학체험관에서는 자연 속 과학 원리를 이해하고 음악과 빛으로 변화하는 에너지를 내 가까이에서 느껴본다. 구름의 생성원리와 자기 부상, 플라스마 등 다양한 과학 원리는 덤. 배울 만큼 배운 뒤에는 즐겨야 제맛. 제주 항공우주박물관에서는 증강현실을 활용해 온라인 게임의 주인공이 되는 실내 카트레이싱을, 번개과학체험관에선 무려 1947미터의 국내 최장 주행코스와 실제 도로주행이 가능한 카트로 야외 레이싱이 가능.-제주항공우주박물관 :서귀포시 안덕면 녹차분재로 218-번개과학체험관, 윈드 1947 : 서귀포시 토평공단로 78-2710. 고소함과 부드러움에 녹는다, 녹아! : 제철방어요리 좋은 식재료만 있어도 요리의 절반은 성공이라는데, 윤기 좔좔 흐르는 통통한 방어야말로 누가 뭐래도 이맘때 최고의 요리 재료 아닐까. 가장 싱싱한 방어를 가장 자연스럽게 즐기기엔 회가 우선. 두툼한 회 한 점 입에 넣는 순간, 입안 가득한 고소함에 먼저 놀라고 살살 녹는 부드러움에 감동이 밀려온다. 회를 뜨고 남은 뼈대와 머리, 꼬리 역시 그냥 지나칠 수 없다. 뼈에 붙은 살은 매운탕이나 맑은 탕, 김치 혹은 시래기 넣어 푹 끓이는 찜으로도 좋고, 머리는 감자나 무를 곁들여 달콤 짭조름한 간장 양념 조림으로도 굳~! 이도 저도 복잡하다면? 심플하게 소금이나 카레 가루 묻힌 구이는 어떨까. 어느 한 부위 버릴 곳도 없고 어떻게 먹어도 흡족한 식재료계의 팔방미인 방어, 그 펄떡이는 매력에 안 빠져들 자신 있는 사람 손! 제주관광공사의 11월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 허브동산 핑크뮬리 관광객 인파 몰려 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 성산일출봉맛집 표선 세화해녀의 집, 허브동산 핑크뮬리 관광객 인파 몰려 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 성산일출봉맛집 표선 세화해녀의 집, 허브동산 핑크뮬리 관광객 인파 몰려 김영준 기자 승인 2019.10.27 15:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 표선 세화해녀의집 제공 약 2만6천평 규모의 부지 안에 200여종의 허브와 야생화가 다양하게 피어있는 관광지가 있다. 바로 제주 허브동산이다. 허브동산은 제주도에서 이미 인지도 높은 곳으로 산책로와 정원들이 잘 정리되어 있어 가족 여행, 효도 관광, 연인과의 데이트 등으로 찾는 이들이 적지 않다. 최근에는 가을이 절정에 달함에 따라 산책과 나들이를 희망하는 관광객들에게 허브동산에만 있는 핑크뮬리 동산에 대한 인기도 역시 높은 수치를 기록하고 있는 것으로 알려졌다. 때문에 허브동산에 다양한 관광객이 방문하는 만큼 근처에 위치한 맛집에 대한 니즈 역시 높아지는 추세다. 특히 갈치를 좋아하는 이들에겐 제주도의 갈치 요리를 제공하는 많은 맛집 중에서 표선의 대표 맛집으로 널리 알려진 세화해녀의 집이 각광받고 있다. 세화해녀의 집의 갈치조림엔 무 대신 호박을 넣는다. 때문에 보다 나은 맛과 퀄리티를 제공하기에 이를 인지한 고객들이 많이 늘어나 한번 왔던 사람들이 다시 오는 단골 고객들로 문전성시를 이루고 있다는 평가다. 갈치조림맛집 세화 해녀의 집은 이미 제주표선맛집으로 KBS2TV 생생정보통 등 여러 매체에 방영된 집이기도 하다. 제철재료만을 고집하는 밑반찬부터 생물 갈치를 기본으로 무, 대파, 감자 등 각종 채소와 재료들이 조화를 이뤄 별미로 꼽히는 갈치조림은 대표 인기메뉴다. 매콤한 양념이 갈치의 부드러운 속살과 어우러져 갈치 조림에 대해 까다로운 입맛을 가진 고객들조차 만족시키는 것으로 알려졌다. 이 외에도 흔치 않은 제주산 오분자기가 가득 들어간 오분작 해물뚝배기와 전복죽, 옥돔구이 역시 소개에 소개가 꼬리를 무는 음식으로 유명하다. 음식의 빛깔과 향, 맛의 삼박자를 골고루 맞춘 곳이라 한번 방문한 적이 있던 손님이라면 관광객은 물론 제주도민이라도 재방문율이 높다. 주변에도 해비치 리조트와 샤인빌 리조트도 위치해 있어 해당 리조트를 이용하는 고객들에게도 호평을 받고 있다. 성산일출봉맛집 세화해녀의집 관계자는 “고객분들이 즐겨 드시는 갈치조림은 물론이고 옥돔구이, 성게미역국, 고등어구이 등 다양한 식사메뉴가 갖춰져 있으며 제주도의 해녀가 직접 잡아 더욱 싱싱한 전복, 해삼, 소라, 문어 등의 해산물을 가득 담아 제공한다. 앞으로도 찾아주시는 모든 분들께 바다를 보며 즐기는 풍요로운 식사를 제공할 것”이라고 전했다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영준 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 회장 보궐선거 후보 단독 출마 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 회장 보궐선거 후보 단독 출마 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 회장 보궐선거 후보 단독 출마 문유미 기자 승인 2019.10.28 17:18 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 부동석 중문덤장 대표 단독 후보로 출마 내달 7일 대의원총회서 과반수 득표 시 당선 다음 달 7일 치러지는 제주특별자치도관광협회 회장 보궐선거 출마자가 단독 후보로 결정됐다. 28일 제주도관광협회에 따르면 지난 21일부터 이날 오후 4시까지 회장 보궐선거 입후보자 등록을 받은 결과 부동석 중문덤장 대표(54·현 도관광협회 부회장)만이 서류를 접수했다. 이에 따라 도관광협회는 다음 달 7일 오후 2시 제주웰컴센터에서 대의원총회를 열고 간접선거로 회장을 선출한다. 대의원은 당연직 48명을 포함한 180명 이내로 구성된다. 단독 출마한 후보가 대의원총회에서 출석 대의원의 과반수 찬성을 얻을 경우 관광협회 회장으로 당선된다. 이번 선거는 김영진 전 회장이 내년 총선 출마 준비를 위해 지난달 30일 임기를 남겨두고 중도 사퇴함에 따라 치러지고 있다. 이에 따라 보궐선거에서 선출된 차기 회장은 김 회장의 잔여 임기인 2021년 2월까지 회장직을 맡는다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[동정] 제주도·제주관광협회, 어린이 관광 아카데미 수료식 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [동정] 제주도·제주관광협회, 어린이 관광 아카데미 수료식 파이낸셜뉴스입력 2019.10.20 21:14수정 2019.10.20 21:14 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 미래관광 인재양성…어린이 60명 대상 6개월 동안 체험교육 진행 어린이 관광 아카데미 수료식 [제주=좌승훈 기자] 제주특별자치도와 제주특별자치도관광협회는 지난 19일 제주웰컴센터에서 어린이 관광 아카데미 교육생 60여명이 참석한 가운데 수료식과 성과 발표회를 가졌다. 이번 아카데미는 생태·지역 등 관광형태에 대한 이해를 통해 미래관광 인재양성 토대 마련을 위해 진행됐다. 이번 관광 아카데미에 참여한 어린이들은 지난 6개월 동안 제주시 조천읍 동백동산습지센터을 비롯해 올레바당체험마을, 제주국립박물관, 낙천리 의자마을, 렛츠런팜 등지에서 체험교육의 시간을 가졌다. 협회 측은 "앞으로도 도내 어린이들에게 제주의 역사·문화·자연과 접목한 관광교육을 통해 미래관광 인재양성에 적극 나서겠다"고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 안전책임 시스템 개발, 단말기 300대 대여 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광객 안전책임 시스템 개발, 단말기 300대 대여 등록 2019.10.15 10:53:19 작게 크게 제주시 애월읍 봉성리 새별오름 억새길【제주=뉴시스】강정만 기자 = 제주특별자치도는 ‘나홀로 탐방객’ 등 제주를 찾는 관광객들의 안전을 책임질 시스템을 구축하고 시계형 신규 단말기 갤럭시 워치 300대를 대여해 준다. 도는 긴급상황 시 버튼 하나로 SOS 호출이 가능한 ‘제주여행지킴이 시스템’을 개발해 15일부터 본격적으로 서비스한다. 제주여행지킴이는 위급 상황 시 스마트워치 단말기 SOS 버튼을 누르면 신고자의 정보와 위치가 제주지방경찰청 112상황실로 전송돼 구조 지원까지 이뤄지는 원스톱 안심망 서비스다. 이 시스템은 관리체계가 단순해지고, 여행지킴이와 112센터 간 시스템 연동이 개선되는 등 서비스 운영과 이용이 보다 편리하게 운영된다. 서비스 신청과 기기대여는 제주관광협회에서 운영하는 공항, 부두 등지의 관광안내소에서 가능하다. 서비스이용신청서 작성과 보증금 납입 후 최대 15일까지 빌릴 수 있고, 여행 후 대여를 받은 곳과 같은 장소에서 단말기 반납, 보증금 반환처리가 이뤄진다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 복지시스템 개발인력 대거 이탈에 안정화 시일 걸릴 듯 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 또 가고싶은 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>"오라관광단지는 제주도의 재앙...철회해야" ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이"오라관광단지는 제주도의 재앙...철회해야" 조인호2019년 10월 25일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주경실련은 오라관광단지 자본검증과 관련해 성명을 내고 오라관광단지 개발은 제주도의 재앙이라며 사업 철회를 촉구했습니다. 이 단체는 제주칼호텔 12배 규모의 숙박시설이 한라산 중턱에 건설되면 숙박업을 하는 도민은 경쟁에서 살아날 수 없고 , 축구장 30배 이상 면적의 쇼핑센터가 건설되면 도소매업체도 심각한 피해를 입을 것이라고 주장했습니다. 조인호hints@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초"오라관광단지는 제주도의 재앙...철회해야" 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>한국관광공사, 中 대형 인센티브 단체들 제주도로 ‘입국 중’ &lt; 지자체 &lt; 광주·전남 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 11:40 (화) 실시간 뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 와룡식품, ISO국제표준화 4개분야 인증 획득 [급등주] 팜스토리 6% 상승 '러·우크라 전쟁, 곡물가격 급등' 언에듀케이티드 키드, 대학축제서 관객석에 '다이빙' 하다 추락 골핑, 온라인 골프쇼핑 페스티벌 ‘2022 블랙골프데이’ 진행 [속보] 尹대통령 "학업성취도 전수평가 실시, 원하는 학교 참여토록" 타임스토프팀, 'Mojaik' 메인넷 출시 [속보] 인천경찰청 "남동구서 김철주 씨 배회중, 파란색흰색체크셔츠·베이지색바지" 공효진 결혼, 11일 케빈오와 미국 뉴욕서 비공개 진행... 나이·프로필 화제 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 한국관광공사, 中 대형 인센티브 단체들 제주도로 ‘입국 중’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 광주·전남 지자체 한국관광공사, 中 대형 인센티브 단체들 제주도로 ‘입국 중’ 기자명 송상교 기자 입력 2019.10.22 09:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 비티푸무역회사 2.700여 명 등 2개사 4,000여 명 규모 한국관광공사는 10월 20일부터 26일까지 중국 후난비티푸무역회사(湖南碧缇福贸易有限公司) 종업원 2,700여 명의 인센티브 관광단체를 제주도로 유치했다. 사진은 2019년 9월 중국 광저우앤루위의약과기 인센티브단 방한행사 모습아다.(사진_한국관광공사) [시사매거진/광주전남=송상교 기자] 한국관광공사(사장 안영배)는 "10월 20일부터 26일까지 중국 후난비티푸무역회사(湖南碧缇福贸易有限公司) 종업원 2,700여 명의 인센티브 관광단체를 제주도로 유치했다"고 밝혔다. 중국 후난(湖南)성에 본사를 두고 있는 비티푸무역회사는 생활용품 제조 및 판매 기업으로 이번 인센티브 관광을 통해 최초로 제주도를 방문하며, 오설록뮤지엄, 중문해수욕장 및 우도 등 제주도의 풍광을 관광하고, 10월 23일 제주 월드컵경기장에서 한류가수 현아와 황치열 공연이 포함된 대형 기업행사를 개최한다. 한편 한국관광공사는 "중국핑안생명보험(中国平安人寿股份有限公司) 인센티브 관광단체 1,500여 명도 10월 초부터 11월 말까지 제주도를 순차적으로 방문하고 있으며, 각각 3박 4일간 제주도의 주요 관광지를 둘러보는 일정을 진행하고 있다"고 밝혔다. 한국관광공사 정익수 미팅인센티브팀장은 “기존 수도권을 방문하는 인센티브 단체와 달리 제주도로 입국해 제주도에서 전 일정을 진행하기 때문에 제주지역 경제 활성화에도 큰 도움이 될 것으로 기대한다”며, “향후 지방공항과 연계한 지원프로그램 개발, 적극적인 지역 주요 관광지 홍보마케팅을 펼쳐 보다 많은 인센티브 관광단체의 지역방문을 유도하고, 지역관광 활성화를 도모하기 위해 노력할 것이다”고 밝혔다. 키워드 #한국관광공사 송상교 기자 sklove77@hanmail.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 尹대통령, 무주 일가족 참사 애도..."취약층 세심한 대책" 지시 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 와룡식품, ISO국제표준화 4개분야 인증 획득 포토뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 4 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 '생활의 달인' 은둔식달 영천 식빵·통밀빵 달인 가게 위치는? 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"오라관광단지는 제주도의 재앙...철회해야" ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크"오라관광단지는 제주도의 재앙...철회해야" 조인호2019년 10월 24일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주경실련은 오라관광단지 자본검증과 관련해 성명을 내고 오라관광단지 개발은 제주도의 재앙이라며 사업 철회를 촉구했습니다. 이 단체는 제주칼호텔 12배 규모의 숙박시설이 한라산 중턱에 건설되면 숙박업을 하는 도민은 경쟁에서 살아날 수 없고 , 축구장 30배 이상 면적의 쇼핑센터가 건설되면 도소매업체도 심각한 피해를 입을 것이라고 주장했습니다. 조인호hints@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초"오라관광단지는 제주도의 재앙...철회해야" 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>[동정] 제주도관광협회 등반동호회, 관광상품 개발 현장체험 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [동정] 제주도관광협회 등반동호회, 관광상품 개발 현장체험 파이낸셜뉴스입력 2019.10.19 21:33수정 2019.10.19 21:33 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 19일 서귀포시 치유의 숲·플레이제이팝 박물관 방문 [제주=좌승훈 기자] 제주특별자치도관광협회 등반동호회(회장 박지혜, 이음새 대표)는 19일 제주도내 관광사업체 대표와 임원원 40여명과 함께 제주지역 관광상품 개발 촉진을 위한 현장체험 일환으로 서귀포시 치유의 숲과 플레이케이팝 박물관을 찾아 체험 프로그램을 진행했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>"오라관광단지 개발은 자본검증 문제 아니라 제주도의 재앙" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "오라관광단지 개발은 자본검증 문제 아니라 제주도의 재앙" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 "오라관광단지 개발은 자본검증 문제 아니라 제주도의 재앙" 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2019.10.23 16:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주경실련, 오라관광단지 개발사업 철회 촉구 "중산간 생태계 파괴하며 대규모 숙박업.쇼핑센터 안될 말" 제주도 개발사(史)에서 최대 규모의 난개발로 인해 중산간 환경훼손이 우려되는 제주오라관광단지 개발사업과 관련해 막바지 자본검증 절차가 진행 중인 가운데, 시민사회단체가 이 개발사업의 철회를 다시 촉구하고 나섰다.제주경실련은 23일 성명을 내고 "오라 관광단지 개발은 자본검증이 문제가 아니고, 제주도의 재앙이다"면서 사업 철회를 촉구했다.또 "오라관광단지 개발을 막아내지 못하면 우리는 역사에 죄인으로 지탄받을 것"이라며 "이 사업은 반드시 철회돼야 한다"고 주장했다.이 단체는 "2016년 11월 개발사업자가 오라동 주민 등을 상대로 오라관광단지를 제대로 개발하면 평당 1000만원도 될 수 있다고 말했다"며 "실제 중국 기업은 2015년 1월 평당 4만9141원에 매입했는데, 오라 공동목장이었던 토지가 여러 사람과 기업의 손을 거쳐서 중국자본에 넘어간 이후 수년이 지나서 관광단지개발 인허가가 된 후에 평당 1000만원이 된다면 무려 203배의 개발이익이 발생하는 것"이라고 지적했다.이어 "개발행위가 사실상 불가능한 토지를 외국인투자유치라는 미명 하에 용도변경이 이뤄져서 상업지역 등으로 개발이 가능해진다면 평당 1000만 원의 가치를 가질 수 있다고 본다"면서 이 사업이 개발사업자에 막대한 시세차익을 안겨주는 사업임을 강조했다.또 "제주도는 숙박업소의 과잉공급으로 영세 숙박업들은 줄도산 공멸 위기에 처해있는데, 오라관광단지에는 숙박시설이 3750실이 공급될 계획"이라며 "제주칼호텔 12배 규모의 숙박시설을 한라산 중턱에 건설된다면 해안과 기존시가지 주변에 비싼 토지를 구입해서 숙박사업을 하는 제주도민은 경쟁에서 살아날 수 없다"고 주장했다.이 단체는 "지금 숙박시설이 과잉 공급 되어 영세한 호텔과 펜션 등이 심각한 어려움에 처해있어서 점차 줄여나가야 할 입장인데도, 거꾸로 자연생태계를 무참하게 파괴하면서까지 숙박시설공급을 대폭 늘여나가겠다는 것은 이해할 수 없다"며 "오라관광단지 개발에 대규모 쇼핑센터와 회의시설, 골프장시설계획 역시 기존업자와 영세자영업자들이 생존을 위협하는 개발계획"이라고 성토했다.또 "축구장 30배 이상 면적이 쇼핑센터가 오라관광단지에 건설된다면 제주도 전체의 도소매업체가 생존할 수 없는 심각한 피해를 입을 수밖에 없을 것이라며 "이것은 제주도지사가 제주도 영세 업자들을 모두 망하게 만들기 위해 앞장서는 것과 다름 아니다"고 반박했다.개발 찬성측에서 오라관광단지 개발을 통해 '1만명 고용창출'이 가능하다는 논리를 펴는 것에 대해서도, "오라관광단지에 1만명 고용하기 위해 영세한 약 12만 명의 자영업자들의 도산한다면 이것이 진정 제주도민을 위한 개발이라고 할 수 있는가"라고 반문했다.이어 "지금의 환경영향평가는 사업자가 비용을 지불해서 만들어지는 구조"라며 "이런 용역보고서는 사업자의 의도대로 만들어질 수밖에 없는데, 오라관광단지 개발로 인해 제주도가 감당할 사회 경제, 자연적 피해가 정직하게 환경영향 평가에 표출될 수 없는 한계가 있다"고 주장했다.한편, 오라관광단지 조성사업은 약 6조2800억원을 투자해 제주시 오라2동 산 46-2번지 일대 357만5753㎡ 부지에 휴양콘도와 관광숙박시설, 골프장시설, 상업시설, 휴양문화시설 등을 조성하는 것을 주 내용으로 한다.단일 개발사업으로는 제주도 역대 최대의 투자규모이고, 개발예정지 또한 제주시 핵심 중산간 지역인 한라산국립공원 바로 밑 해발 350~580m에 위치하고 있어 대규모 개발사업으로 인한 막대한 환경피해가 우려되고 있다.원희룡 도정의 미래비전계획 및 중산간 보전 가이드라인, 제주국립공원 확대 지정 등의 정책기조에 비춰볼 때 사실상 '부적격' 사업이란 지적이 많았으나, 제주도는 환경영향평가 절차 진행과정에서 사실상 '사업자 편들기'로 일관해 비판을 자초했다.특히, 환경영향평가 과정에서는 숱한 의혹이 제기됐는데, 제주도 환경영향평가심의위는 전례없는 속전속결 '재심의' 개최 등으로 조건부 통과를 시키면서 큰 논란을 불러일으켰다.결국, 시민사회 거센 반발과 도의회 내에서도 비판이 들끓자, 지난 2017년 6월 제주도정이 도의회의 자본검증 제의를 수용하면서, '선(先) 자본검증, 후(後) 인.허가 절차'의 수순을 밟게 됐다.이에 따라 구성된 자본검증위원회는 4차례 걸쳐 회의를 열었으나 사업자가 6조원이 넘는 막대한 자본을 확보해 조달할 수 있는 능력에 대한 검증자료가 미흡하다는 판정을 내리고, 올해 6월 말까지 총 사업비 중 분양수입을 제외한 금액의 사업비의 10%인 3373억원을 지정계좌에 사전 예치할 것을 요청했다.그러나 사업자가 이를 이행하지 않으면서, 사업자의 자본조달능력은 사실상 검증되지 못하는 상황에 이르렀다. 제주도 사상 최대의 난개발 사업이라는 우려가 쏟아지고 있는 이 사업의 자본검증은 사실상 '검증 불가'로 마무리되는 가운데, 제주도가 최종 어떤 결정을 내릴지가 주목된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 역대급 난개발 논란 오라관광단지, '5조2000억' 자본검증 결론은? 난개발 논란 오라관광단지, '5조원' 자본조달능력도 의문 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>"“한국경제, 7개월째 경기부진…‘NO JAPAN’에 제주도 관광 증가”"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 “한국경제, 7개월째 경기부진…‘NO JAPAN’에 제주도 관광 증가” 2019.10.10 14:51 KDI 경제동향 10월호 ［헤럴드DB］[헤럴드경제=배문숙 기자] 국책연구기관인 한국개발연구원(KDI)이 7개월 연속 우리나라 경제 상황에 대해 부진 판단을 내렸다. 수출과 투자는 감소세를 이어갔지만, 일본이 우리나라에 대해 수출규제를 단행한 여파로 출국자 수가 감소하고 제주도 내국인 관광객이 늘어나 소비는 증가세로 돌아섰다.10일 KDI 경제동향 10월호에서 한국 경제에 대해 "소비가 확대됐지만 수출이 위축되면서 경기 부진이 지속되는 모습"이라고 평가했다.KDI는 작년 11월부터 올해 3월까지 경기 상황에 대해 '둔화'라고 본 데 이어 4월부터는 '부진'이라고 진단했다.소비 부진이 완화되고 투자 감소 폭도 소폭 줄었지만, 부진에서 빠져나왔다고 보기는 어려운 상황인 것으로 나타났다.김성태 KDI 경제전망실장은 "경기 부진이 일부 완화되기는 했지만 여전히 낮은 레벨에 있어 전체적으로 횡보하는 모습"이라고 설명했다.우선 8월 전산업생산이 1년 전보다 0.2% 증가하는 데 그쳤다. 특히 전자부품과 자동차 생산이 각각 16.9%, 11.9% 줄면서 광공업생산이 2.9% 감소했다.제조업 출하는 1.6% 감소했고 재고율은 112.4%로 여전히 높았다. 서비스업 생산은 도소매업과 예술·스포츠·여가 관련 서비스업의 증가세에 힘입어 2.4% 증가했다.소비 부진은 다소 완화되는 모습을 보였다. 8월 소매판매액이 지난해 같은 달보다 4.1%, 전월 대비 3.9% 증가했다. 이른 추석 영향에 명절 관련 소비가 8월 소매판매액을 끌어올린 원인으로 꼽힌다.또 그간 증가세를 유지해 온 출국자 수가 8월 이례적으로 3.7% 감소하면서 해외여행 수요가 국내 소비로 전환된 것으로 풀이된다.같은 달 제주도 내국인 관광객 수는 8.4% 증가하고 오락·취미·경기 용품 소비도 9.5% 증가했다.김 실장은 일본 불매운동의 영향이 출국자 수 감소에 일부 영향을 줬을 수 있다며 "일본으로 향하던 출국자가 동남아시아는 물론 제주도 등 국내로도 움직인 것으로도 볼 수 있다"고 설명했다.9월 소비자심리지수는 전월보다 4.4포인트 오른 96.9였다, 소비재수입은 12.1%의 증가율을 보였다.8월 설비투자는 1년 전보다 2.7% 감소했지만, 전월보다는 감소 폭이 2.2%포인트 축소됐다.설비투자 선행지표인 9월 자본재 수입액은 여전히 8.0% 감소해 반도체 산업을 중심으로 한 설비투자 부진이 당분간 지속할 전망이다.8월 건설수주(경상)는 22.2% 감소했다. 특히 주택이 31.8% 줄었다.선행지표인 주택 인허가가 무려 24.9% 감소하면서 향후 주거 부문에서 회복을 기대하기는 어려울 것으로 보인다.9월 수출은 글로벌 경기 하강 속에 전년 대비 11.7% 감소했다. 품목별로는 반도체(-31.5%), 석유제품(-18.8%), 석유화학(-17.6%) 등 주력 산업을 중심으로 큰 폭의 감소세가 이어졌다. 같은 달 수입은 5.6% 감소했고, 무역수지는 59억7000만 달러 흑자를 냈다.노동시장은 서비스업을 중심으로 개선되는 흐름이다. 8월 취업자 수는 1년 전보다 45만2000명 증가했다. 7월 상용근로자 전체 임금은 2.7% 올랐고, 임시·일용 근로자 임금은 5.6% 상승했다.9월 소비자물가는 0.4% 하락했다.같은 달 금융시장은 미중 무역협상 재개 가능성 속에 대외 리스크가 완화하면서 전월 대비 비교적 안정된 모습을 보였다. 종합주가지수와 국고채 금리는 상승했고 국제금융시장에서도 선진국 장기금리나 신흥국 환율 등 투자심리를 나타내는 지표들이 안정된 모습을 보였다고 KDI는 설명했다.oskymoon@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제35대 회장 입후보자 공고 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 제35대 회장 입후보자 공고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회 제35대 회장 입후보자 공고 기자명 김승환 기자 입력 2019.10.20 00:03 수정 2019.10.20 00:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 입후보자 접수 21~28일 오후 4시까지…선거일 11월 7일 (제주=국제뉴스) 김승환 기자 = 제주도관광협회가 제35대 회장선거 일정을 확정했다.제주도관광협회에 따르면 회장 선거일은 11월 7일이며 오는 21일 오전 10시부터 28일 오후 4시까지 입후보자 접수를 받는다회장의 자격은 도내․외 거주 불문하고 관광마인드, 지식, 사업경험, 리더쉽과 덕망이 있는 인사로 관광진흥법 제7조(결격사유)에 해당되지 않는 자이다. 제출서류는 입후보신청서 1부와 등록금 2000만원, 이력서 1부, 주민등록초본 및 등본 1부, 추천서 1부(관광협회 회원 50인 이상 추천), 자기소개서 1부 등을 제출하면 된다. 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 기초통계부터 주먹구구식 '신뢰' 하락 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 관광객 기초통계부터 주먹구구식 '신뢰' 하락 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 관광객 기초통계부터 주먹구구식 '신뢰' 하락 기자명 김지석 기자 입력 2019.10.16 16:43 수정 2019.10.16 18:17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 답변하는 이경용 위원장 (제공=제주특별자치도의회)제주도의회 문화관광체육위 16일 행정사무감사 진행이승아·이경용 의원 관광객 통계 차이 숨기기 의혹 제기제주도가 가장 기본적인 관광객 기초통계부터 주먹구구식으로 진행되고 있어 통계의 신뢰성을 잃고 있다는 지적이 제기됐다.특히 1억5000만원을 들여 관광객 통계방법 개선연구를 진행해 놓고도 이를 적용하지 않으면서 관광객 수치 차이를 숨기기 위한 것 아니냐는 의혹마저 일고 있다.제주도의회 문화관광체육위원회(위원장 이경용)는 16일 제주도 관광국, 제주관광공사, 도관광협회 등을 상대로 제377회 도의회 임시회 행정사무감사를 진행했다. 질의하는 이승아 의원 (제공=제주특별자치도의회)이 자리에서 더불어민주당 이승아 의원(오라동)은 "2017년 관광객 통계방법 개선 연구에서는 입도객 중 내국인 관광객 비율 산출 기준이 85.3%, 2018년에는 88.6%로 나왔다"며 "2014년부터 2016년까지 적용돼온 내국인 관광객 비율이 94.1%였던 데 비하면 상당히 큰 차이를 보이고 있다"고 설명했다.이 의원은 "도는 지난해 내국인 관광객이 1308만명이라고 발표했지만 개선연구를 통해 도출된 비율을 적용하면 1121만명으로 180여만명이 차이가 난다"며 "또 제주도가 올해 8월까지 내국인 관광객이 1.2% 늘어났다고 발표했지만 2017년 적용치를 반영하면 오히려 0.2% 줄어들게 된다. 이에 관광업계 현장에서 내국인 관광객이 회복세라는 걸 체감하지 못하는 것은 물론 행정을 신뢰하지 않고 있다"고 지적했다.이 의원은 "1억5000만원을 들여 관광통계방법 개선연구를 했지만 이를 적용하지 않고 있다"며 "오히려 이를 숨기고 있는 것 아니냐"고 따져 물었다.이어 "더 걱정되는 건 이게 가장 기초가 되는 자료인데 통계 방법이 주먹구구식으로 이뤄지고 있다"며 "조사 주기도 3년, 4년, 2년으로 왔다 갔다 하고 정확하지도 않다"라고 주장했다.이경용 위원장은 "빅데이터 방식으로 할 경우 일일 입도관광객 분석이 안 된다. 통계 전담조직도 없고 조사 시기도, 조사 방법도 다 다르다"며 "관광공사에 통계 전담기구를 만들고 통계에 따른 관광정책을 수립할 필요가 있다"고 제안했다.강영돈 도 관광국장은 "통계 조사기법과 표본의 차이로 수치가 다르게 나타나는 것 같다"며 "앞으로 빅데이터를 활용하는 등 통계 분석의 정확도를 높이기 위해 노력하겠다"고 말했다. 김지석 기자 관련기사 "제주 곳곳에 갈등 문제 산적한 데 해소 역할 미흡" 기초학력 향상·평준화지역 일반고 학급당 정원 초과 지적 제2공항 공론조사 놓고 '내홍'에 행감 칼 무뎌지나 제주소방안전본부 승진·평정 '자기만의 리그' 전락 농수축경제위 "가을 장마·태풍 피해 농가 실질적 지원 대책 마련해야" 국가경찰 외면한 근무복 제주자치경찰이 입나 '논란' 원 도정 도시계획위원회 심의 '통과의례' 전락 김지석 기자 kjs@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 내주부터 제35대 회장 입후보 접수 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 내주부터 제35대 회장 입후보 접수 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회, 내주부터 제35대 회장 입후보 접수 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.10.18 15:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회는 오는 21일부터 28일까지 제35대 회장 선거 입후보자 접수를 받는다고 18일 밝혔다. 관광협회장 자격은 관광마인드와 지식, 사업 경험, 리더십과 덕망이 있는 인사로 관광진흥법 제7조에 따른 결격사유가 없어야 한다. 입후보 신청서와 주민등록초본·등본, 관광협회 회원 50인 이상 추천서, 자기소개서를 제출해야 한다. 또 입후보 등록금 2000만원도 함께 제출해야 한다. 선거일은 오는 11월7일이며, 자세한 내용은 관광협회 홈페이지에서 확인할 수 있다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[특징주] 롯데관광개발, 제주도 카지노업 조례 개정안 부결에 상승세 - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 특징주 [특징주] 롯데관광개발, 제주도 카지노업 조례 개정안 부결에 상승세 입력 2019-10-28 13:58 이신철 기자																								camus16@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲제주 드림타워 복합리조트 전경. (사진=롯데관광개발)롯데관광개발이 카지노 이전 변경에 대한 문턱을 높이는 내용의 조례가 부결되면서 주가가 강세를 보이고 있다. 롯데관광개발은 28일 오후 1시 55분 기준 전 거래일보다 8.02% 오른 1만2800원에 거래되고 있다.이날 제주도의회 상임위원회는 외국인 전용 카지노 영업장 소재지를 이전 변경하는 방식으로 규모를 키우는 것을 막기 위해 발의됐던 '제주도 카지노업 관리 및 감독에 관한 조례' 개정안을 부결 처리했다. 관련 뉴스 롯데관광개발, 해외 투자자 대상 전환사채 715억원 발행 롯데관광개발, 최대주주 등 소유주식수 460만주 감소 [전일 주요 공시] 롯데관광개발ㆍ인스코비ㆍ이더블유케이 등 개정안은 기존 카지노 사업권을 매입한 후 이전 변경을 통한 영업장 변경은 신규 허가와 동일한 절차를 밟도록 했다. 카지노 대형화에 따른 부작용을 막기 위함이다.이번 부결로 제주드림타워 복합리조트 연내 완공과 함께 카지노의 확장 이전을 추진해온 롯데관광개발은 사업 추진에 탄력이 붙을 전망이다. 회사는 기존 '파라다이스 제주롯데 카지노'를 149억 원에 인수한 데 이어, 기존 영업장을 제주드림타워로 4배 확장 이전을 추진해 왔다. 장중 매매동향은 잠정치이므로 실제 매매동향과 차이가 발생할 수 있습니다.이로 인해 일어나는 모든 책임은 투자자 본인에게 있습니다. #롯데관광개발 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 09 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 10 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 금융·증권 최신 뉴스 [공시] 일진머티리얼즈, 롯데케미칼 자회사와 최대주주 변경 주식매매계약 체결 [종합] 코스피, 기관 매도에 하락세…코스닥, 670선 등락 반복 [이시각 하한가] 비덴트(▼1770) - 11일 오후 12시22분 [공시] 롯데케미칼 美 배터리 소재 자회사, 일진머티리얼즈 최대주주 지분 전부 인수 [공시] LS, KT서브마린 주식 약 404만주 취득…지분율 15.57% [조회공시] 한창, 2차전지 장비업체 인수 추진 보도 관련 [시황_정오] 코스닥 670.09p, 하락세 (▼28.4p, -4.07%) 지속 [시황_정오] 코스피 2180.53p, 하락세 (▼52.31p, -2.34%) 지속 [국감 핫이슈] 이복현 금감원장 “금투사 접대비, 현황 점검할 것” [공시] 현대삼호중공업, 3468억 규모 LNGC 1척 수주 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 12:50 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,390 3.베트남개발1 69 4.유니온머티리얼 345 5.휴니드 440 1.테라셈 31 2.코아스템 2,680 3.코디엠 167 4.동국알앤에스 815 5.나노씨엠에스 4,100 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,368,000 -1.28% 이더리움 1,835,000 -2.76% 비트코인 캐시 158,500 -5.2% 리플 708.5 -6.57% 위믹스 2,408 -4.86% 에이다 569.1 -5.76% 이오스 1,487 -7.24% 트론 88.44 -2.19% 스텔라루멘 177.8 -2.09% 비트코인에스브이 68,000 -3.2% 체인링크 10,330 -5.06% 샌드박스 1,131 -4.96% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>맑은가을날씨 찾기 좋은 제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 보궐 선거 내달 7일 실시 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회장 보궐 선거 내달 7일 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회장 보궐 선거 내달 7일 실시 기자명 고 미 기자 입력 2019.10.18 22:20 수정 2019.10.20 16:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제35대 제주특별자치도관광협회장이 내달 7일 가려진다.제주특별자치도관광협회는 제35대 회장 선거 일정을 확정하고 18일 공고했다.회장선거일은 11월 7일로 선거는 오후 2시 제주웰컴센터에서 진행한다. 입후보자는 이달 21일부터 28일까지 제주도관광협회를 방문해 접수해야 한다.도내․외 거주와 관계없이 관광마인드, 지식, 사업경험, 리더쉽과 덕망이 있는 인사로 관광진흥법 제7조(결격사유)에 해당하지 않으면 된다.관광협회장은 대의원총회에서 간접선거로 선출되며, 정관에 따른 대의원은 당연직 48명을 포함한 180명 이내로 구성된다.이번 선거는 김영진 전 회장이 내년 국회의원 선거 출마를 위해 지난달 30일 회장직을 사임하면서 치러지는 보궐 선거로 신임 회장은 김 전 회장의 잔여 임기인 내년 2021년 2월까지 회장직을 수행하게 된다.입후보신청서와 등록금, 이력서, 주민등록초본 및 등본, 추천서 1부(관광협회 회원 50인 이상 추천), 자기소개서 등을 제출하면 되며, 자세한 사항은 관광협회 홈페이지(www.visitjeju.or.kr)를 참고하면 된다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치요리의 진수보여주는 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월 베스트 관광인 ㈜에버그린 강윤미 팀장 선정 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 9월 베스트 관광인 ㈜에버그린 강윤미 팀장 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회, 9월 베스트 관광인 ㈜에버그린 강윤미 팀장 선정 기자명 이세연 기자 입력 2019.10.13 14:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장직무대리 최경달)는 지난 10일 제주종합비지니스센터 3층 대회의실에서 "칭찬합시다" 이달의 베스트 관광인을 선정해 선정패와 친절 키움 꽃 화분을 전달하였다.㈜에버그린 강윤미 팀장은 투철한 사명감으로 직무를 성실히 수행해 타의 모범이 되고 있다. 특히 관광기념품을 생산하는 회사의 제품 품질관리 및 생산효율성 증대, 신제품 개발에 지대한 공로를 인정받았다. 이세연 기자 leese010@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거 다음 달 7일 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회장 선거 다음 달 7일 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회장 선거 다음 달 7일 실시 부남철 기자 승인 2019.10.20 15:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회 회장 보궐선거가 다음 달 7일 실시된다. 제주도관광협회는 제35대 회장 선거 일정을 확정하고 지난 18일 공고했다. 회장 선거일은 11월 7일로 선거는 오후 2시 제주웰컴센터에서 진행한다. 입후보자는 오는 21일부터 28일까지 제주도관광협회를 방문해 접수해야 한다. 입후보 자격은 도내ㆍ외 거주와 관계없이 관광마인드, 지식, 사업경험, 리더쉽과 덕망이 있는 인사로 관광진흥법 제7조(결격사유)에 해당하지 않으면 된다. 제주도관광협회장은 대의원총회에서 간접선거로 선출되며 정관에 따른 대의원은 당연직 48명을 포함한 180명 이내로 구성된다. 이번 선거는 김영진 전 회장이 내년 국회의원 선거 출마를 위해 지난달 30일 회장직을 사임하면서 치러지는 보궐 선거로 신임 회장은 김 전 회장의 잔여 임기인 2021년 2월까지 회장직을 수행하게 된다. 입후보신청서와 등록금, 이력서, 주민등록초본 및 등본, 추천서 1부(관광협회 회원 50인 이상 추천), 자기소개서 등을 제출하면 되며 자세한 사항은 관광협회 홈페이지(www.visitjeju.or.kr)를 참고하면 된다. 부남철 기자  bunch@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>"제주도관광협회 공적 역할 의구심" - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 "제주도관광협회 공적 역할 의구심" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 "제주도관광협회 공적 역할 의구심" 부남철 기자 승인 2019.10.16 17:16 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 강민숙.양영식 의원, 제주도의회 문광위 행정사무감사서 지적 사진 왼쪽 강민숙 의원, 오른쪽 양영식 의원 제주특별자치도관광협회의 역할과 조직 구성의 적절성이 도마 위에 올랐다. 제주특별자치도의회 문화관광체육위원회(위원장 이경용, 무소속, 서귀포시 서홍ㆍ대륜동)가 16일 제주도 관광국을 대상으로 실시한 제377회 임시회 행정사무감사에서 이 같은 문제들이 집중 제기됐다. 강민숙 의원(더불어민주당, 비례대표)은 “제주도관광협회가 제대로 공적 기능과 역할을 하고 있는지에 대해서 의구심이 든다”라며 “제주도관광협회는 제주도로부터 지난해 126억원의 보조금을 받았지만 제대로 된 역할을 못 하고 있다”라고 지적했다. 강 의원은 특히 “제주도관광협회가 대표적 사업으로 탐나오를 운영하고 있지만 지난해 판매액과 객단가가 하락하는 등 지역 경제 활성화에 전혀 도움이 되지 않고 있다”라며 “시티투어버스 사업 역시 1일 평균 이용객이 11명에 그치고 있는데 이런 사업들을 계속 해야 하는 것”이냐고 반문했다. 양영식 의원(더불어민주당, 제주시 연동갑)도“제주도관광협회 임원은 모두 45명으로, 서울시관광협회 임원(30명) 보다 15명이나 많을 정도로 매머드급”이라며 “특히 제주도 관광국장이 부회장을 맡고 있고 이사진에는 제주시 부시장과 서귀포시 부시장이 이름을 올리고 있다”라고 지적했다. 양 의원은 “제주 관광정책을 총괄하는 컨트롤 타워의 수장이 이익단체의 부회장 직함을 갖고 있고, 이 단체를 지도·감독해야 할 책임이 있는 두 부시장이 도리어 이사를 맡고 있는 것이 상식적이냐”라고 추궁했다. 이경용 위원장은 이와 관련 “국장과 두 부시장 모두 도관광협회 고위 임원직에서 사임하고 도의회에 제도개선 사항을 보고하라”고 주문했다. 부남철 기자  bunch@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 관련기사 "제주도 소방안전본부 감사 지적사항 개선 노력 소홀" 제주 제2공항 공론화 두고 의회 갈등 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 제27회 부산영도다리축제 연계 관광홍보부스 운영 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회, 제27회 부산영도다리축제 연계 관광홍보부스 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도-관광협회, 제27회 부산영도다리축제 연계 관광홍보부스 운영 기자명 이세연 기자 입력 2019.10.13 15:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회는 지난 11일부터 13일까지 부산 영도대교 및 봉래동 물양장 일원에서 개최하는 제27회 부산영도다리축제와 연계해 제주관광홍보부스를 운영했다.이번 현장홍보마케팅에서는 부산제주도민회와 함께 청정 힐링 관광지인 제주의 다양한 인프라 소개를 초점으로 제주관광 상품을 홍보했다.제주홍보부스를 찾는 관람객을 대상으로 제주여행오픈마켓, 제주시티투어버스, 제주뱃길 등의 이벤트를 제공했다.도와 관광협회는 서울제주도민의날 행사, 2019 메가쇼 등 권역별 대형이벤트와 연계한 현장마케팅을 통해 내국인 관광객 유치에 기여할 수 있도록 적극적인 홍보마케팅을 이어나가겠다고 했다. 이세연 기자 leese010@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 해수욕장 관광객 해파리 쏘임사고 방치 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 로그인 2022.10.11 화요일 동두천 12.2℃맑음 강릉 19.3℃맑음 서울 13.2℃맑음 대전 15.5℃맑음 대구 15.6℃맑음 울산 16.4℃맑음 광주 17.1℃맑음 부산 18.7℃맑음 고창 16.2℃구름많음 제주 18.5℃구름많음 강화 13.5℃구름조금 보은 13.1℃맑음 금산 14.4℃맑음 강진군 18.3℃구름조금 경주시 16.3℃맑음 거제 17.5℃맑음 기상청 제공 한국어 English 中國語 日本語 전체 포토핫뉴스 농촌사회&amp;환경 농촌을 이끄는 사람들 살기좋은 복지농촌 생명창고! 흙에 살리라! 아름다운 농촌들녘 농업과학 농촌진흥 과학소식 농업기술실용화 영농신기술 농업과학 식품산업 로컬푸드 가공산업&amp;물류마켓팅 농축산물유통 가락시장&amp;청과유통 지방도매시장 소매유통 소비자컨슈머 협동조합 산림조합 노동조합 네트워크 농협 농정&amp;농촌경제 농촌경제 농업전망 인물포커스 기획특집 대가축 현장 소가축 특수가축 동물보호법 라이브축산 물류유통 산림경제 산림기술 산림조합&amp;비즈니스 산림정책&amp;산림기술 농촌사회 농촌문화 농촌사회 노동운동 전통문화 농축산환경 축산뉴스 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 농촌경제 홈 농촌경제 제주도, 해수욕장 관광객 해파리 쏘임사고 방치 지난해 제주 해파리 쏘임사고 350건… 경남 738건 다음으로 전국 2위 해파리사고 발생 광역지자체 7곳 중 유일하게 차단망 등 방지시설 설치 안 해 박완주 “해파리 발생 증가추세” “제주도, 해수욕장 해파리쏘임사고 대책 마련해야” 박시경 newsrt@naver.com 등록 2019.10.19 13:06:27 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 해파리 발생이 빈번해지고 있는 가운데 제주도가 해수욕장내 해파리 쏘임사고를 방치하고 있다는 지적이 제기됐다. 국회 농림축산식품해양수산위원회 박완주 국회의원(더불어민주당, 천안을)이 해양수산부로부터 제출받은 자료에 따르면 전국 해수욕장내 해파리 쏘임사고가 지난해 크게 늘어난 것으로 나타났다. 2017년 854건이었던 해파리 쏘임사고는 지난해 1,305건으로 크게 늘었고 올해도 최근까지 1,252건 발생했다. 국립수산과학원에 따르면, 최근 들어 우리나라 연근해에는 독성이 강한 대형해파리인 노무라입깃해파리의 대량발생이 빈번해고 있다. 초여름부터 늦가을까지 수산업은 물론 여름철 피서객에까지 피해를 입히는 사례가 증가하는 추세다. 해파리는 촉수에 미세한 일종의 독침을 가지고 있어 접촉시 어민과 해수욕객에 쇼크, 피부 손상, 통증 등의 피해를 주고 있기 때문에 각 지자체에서는 해파리 쏘임사고를 막기 위해 해수욕장에 차단망과 같은 해파리 방지시설을 설치하고 있다. 해파리 쏘임사고가 연평균 614건으로 가장 많이 발생하는 경상남도의 경우 최근 3년간 매년 7개의 방지시설을 설치하고 있고, 쏘임사고가 연평균 1건 정도로 다소 미미한 경상북도의 경우에도 사전예방 차원에서 최근 3년간 12개의 방지시설을 설치했다. 그러나 박완주 의원이 해양수산부로부터 제출받은 자료에 따르면, 제주도는 해파리 쏘임사고가 경남에 이어 2위에 달하는 등 사고가 많이 발생하는 지역임에도 불구하고 사고 발생 광역지자체 7곳 중 유일하게 해파리 방지시설을 전혀 설치하지 않은 것으로 나타났다. 이에 대해 박완주 의원은 “해파리 쏘임사고가 최근 크게 늘어나고 있음에도 불구하고 제주도는 태풍, 거센 파도, 빠른 물살로 인한 차단망 유실이 우려된다는 이유로 여태껏 설치하지 않고 있다”며 “국민의 안전이 최우선인 만큼, 차단망 설치를 적극 검토해야할 것”이라고 밝혔다. 박시경 kenews.co.kr 박시경 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 -저작권자© 한국농촌경제신문/ 무단전재 및 재배포금지- #제주도 #박완주의원 #농해수위 #국감 #국회 #한국농촌경제신문 #해파리 관련기사 '청경채' 우수품종 눈길 2022-10-01 토양유실 '덮는 작물' 예방효과 커 2022-09-13 카길애그리퓨리나-고용노동부, 축산 청년고용위해 민관협업 2022-09-13 유튜브 채널 통한 ‘스마트HACCP’ 사업설명회 개최 2022-09-13 13조간엠바고//태풍피해 과수농가 대상, 낙과 가공용 수매 지원 2022-09-13 2021년산 농산물 소득조사 결과 발표 2022-09-13 소병훈 농해수위원장 ‘특별조정교부금 45억 원 확보’ 2022-09-13 토종닭 ‘구구데이’ 이벤트 9월 23일까지 2022-09-13 농촌 일손 문제 화두 ‘계절근로자 제도’ 개선책 마련 2022-09-13 ‘이탈리안 라이그라스’ 재배 기술·국산 품종 소개 2022-09-13 산란계 농가 ‘계란’ 살충제 집중검사 결과 모두 적합 2022-09-13 전국 농지 대상 ‘농지이용실태조사’ 실시 2022-09-13 ‘에코마켓’ 축산물 소비 릴레이 눈길 2022-09-13 농정원 '쌀 나눔'...따뜻한 동행 캠페인 2022-09-12 ‘힌남노’ 태풍피해 농작물 사후관리 중요 2022-09-12 한국농업기술진흥원 창립 13주년...‘KOAT 혁신경영’ 선포 2022-09-12 쾌적한 농촌 공간 조성, 빈집을 주민쉼터로 2022-09-12 축산물품질평가원, 따뜻한 ‘축산물 나눔행사’ 눈길 2022-09-12 ‘수목치료 기술 공모전’ 10월 15일까지 2022-09-12 '쌀' 소비 촉진 캠페인 2022-09-12 ‘곤충’ 미래형 친환경 소재...갈수록 주목 2022-09-12 서울시농수산식품공사-(사)희망나눔마켓...'따뜻한 동행' 2022-09-08 농촌진흥청 신간...‘농가 안전사고 응급처치 가이드’ 2022-08-30 공공급식 '통합플랫폼'...식생활 개선 높은 평가 2022-08-30 'A Farm Show'...창농·귀농 고향사랑 박람회 2022-08-30 편의성 높인 ‘NH모바일인증’ 출시 2022-08-30 한-일 산림경영 발전 협약체결 2022-08-30 아시아 식물검역...선도역할 돋보여 2022-08-30 청소년 대상 ‘농식품산업 진로 교육’ 필요성 대두 2022-08-30 추석 차례상 차림비용 6.8%↑ 2022-08-30 구리농수산물공사, 추석 맞아 사회복지단체 후원금 미담 2022-08-30 농업·농촌자원 무형유산 보전한다 2022-08-30 우유 대체할 수 있는 ‘식물성 대체음료’ 소비자 주목 2022-08-30 농협 '살 맛나는 추석 만들기' 2022-08-30 농협 '디지털혁신위’...농업분야 스타트업 발굴 2022-08-30 한농대, 9월13일부터 신입생 모집 2022-08-30 추석 사전예약 많은 인기선물...‘한우세트’ 2022-08-30 농우바이오, 고부가가치 종자 개발에 박차 2022-08-30 aT, 온라인 수출상담회...9백만 달러 상담실적 거둬 2022-08-30 농협몰 ‘한국농협김치’ 추석선물 2022-08-29 ‘산림조합중앙회-괴산세계유기농엑스포’ 성공기원 2022-08-29 ‘샤인머스켓’ 선물세트 여전히 인기 2022-08-29 조재호 농촌진흥청장 '농업인단체장' 간담회 가져 2022-08-29 집중호우 피해 ‘농작물재해보험금’ 지급 시작 2022-08-29 농촌진흥청 창립 60주년 기념행사 개최 2022-08-29 농장에서 식탁까지... 탄소중립 실천 ‘코리아 그린푸드 데이’ 2022-08-29 ‘스마트축산 K-FARM 페어’ 오픈 2022-08-29 산림 온실가스, 대학생 전문인력 양성한다 2022-08-29 농어촌공사, 집중호우 특별재난지역 ‘부여·청양’ 긴급 피해복구 2022-08-29 하나로마트 '캠핑용 모둠버섯' 할인 2022-08-29 저출산 극복...‘한우이유식’ 지원 업무협약 2022-08-29 신정훈 의원 "화순 특산자원 융복합기술 선정" 기대감 커 2022-08-29 항산화 '플라보노이드' 함량 증진 소재 개발 2022-08-29 상호금융, 폭우 피해복구에 구슬땀 2022-08-29 31일까지 '맥류' 12품종 신청 보급 2022-08-29 국내 최초 '인공지능 과일선별기' 개발 화제 2022-08-23 삼계탕 500인분·우리 농산물 나눔으로 무더위 응원 2022-08-16 ‘광견병’... 동물질병 검사 서비스 확대 2022-08-16 한우자조금 ‘8월의 크리스마스'...한우도시락 나눔 2022-08-16 한우와 빵이 만나면? 한우빵을 소개합니다 2022-08-16 가락몰 ‘서울쇼핑페스타’...8월 31일까지 2022-08-16 농업분야 오픈캠퍼스 ‘빛가람 미래농업 인재육성 과정 4기’ 운영 2022-08-16 세계적인 정원 트렌드...'2023순천만국제정원박람회’ 2022-08-16 농식품부, 민간협력 양돈 수급 안정 도모 2022-08-16 이곳저곳 '폭우피해'...서둘러 피해복구 2022-08-16 추석대목 먹거리 수급안정에 총력 2022-08-16 쌀 수확기 대비 창고 확보 2022-08-16 우리 밀 '햇밀장'...국산품종 ‘황금알’ 빵 2022-08-16 약용작물 ‘지황’ 보급...지역-농가-산업체 협업사례 화제 2022-08-16 농협, 스마트농업 현장활용 경진대회 2022-08-15 지능형농장 수출 활성화 위한 기업 간담회 개최 2022-08-15 ‘섬의 날’ 대한민국 섬 집중 조명 2022-08-15 ‘커피 생두’ 가격 인하 중? 수입 시 부가가치세 면제·할당관세 적용 2022-08-15 한돈몰 인기 품목 및 추석 선물세트 이벤트 진행 2022-08-15 한국농수산식품유통공사-KT 농수산식품 데이터 통합⸱활용 전략 수립 2022-08-15 꿀벌응애류 의한 피해 예방 위해 방제 당부 2022-08-15 추석 성수품 ‘사과’, 공급 원활할 전망 2022-08-15 종자피해 빈번...품질보증 '씨마늘' 사용 캠페인 2022-08-15 재배 안정성·높은생산성, ‘누리찰’ 추천 2022-08-15 ‘미米식쌀롱’에 누룽지 사러 가자 2022-08-15 농기계 순회 수리봉사반 출동! 가을 영농기 대비하세요 2022-08-15 농촌진흥청-엘지헬로비전, 청년농업인 적극 지원 2022-08-15 ‘유제품 단백질’ 관심 증가... 제품 출시 잇따라 2022-08-15 농작물재해보험 대상에 가을배추 추가 예정 2022-08-15 인삼 소비감소세...인삼사업 발전 방향 2022-08-15 농업인 무료 법률서비스 2022-08-15 ‘재생에너지 발전예측 중개거래 협약’ 2022-08-15 ‘우유야! 캠핑가자!’ 사업 성황리 진행중 2022-08-10 한국후계농업경영인 전국대회’ 2022-08-10 비대면 전용 ‘MY콕통장’ 많은 혜택 누리세요! 2022-08-10 정황근 농식품부장관 주재, 집중호우 대응 긴급 점검 2022-08-10 '식량주권' 확보위해 맞손 잡아 2022-08-09 무더위에도 단단한 여름딸기 ‘미하’ 현장 평가회 2022-08-09 가락시장 ‘청과물시장동’ 국가안전대진단 2022-08-09 나주 햇배, 미국 수출길 올라 2022-08-09 한종협 '현장중심' 강화 2022-08-09 ‘식량불안’ 코앞까지...지속가능한 식량안보 2022-08-01 한우 사육량 증가..."4.9% 늘었다" 2022-08-01 ‘임업직불금’ 접수 마감 임박! 2022-07-29 우유가격 협상 마감시한 째각째각..."우유컵 엎어질라" 2022-07-28 93건의 관련기사가 더 있습니다. 전체기사 닫기 마케팅플라자 더보기 1'농업경영체등록' 사전진단 서비스 시작 2지역농축협 '횡령사고' 잇따른 발생 지적 3농협 '태양광사업' 대출이자 잿밥에 눈 멀어(?) 4'시장격리' 쌀 45만 톤 매입 추진 5한국마사회 '영천경마공원' 첫 삽 6'과일산업대전'...12월 2일 대구에서 개최 7'로망스골드’ 국산 파프리카 종자보급 확산 기대 8"돼지농장 긴급비상"...한돈협회도 비상체계 돌입 9[속보] 돼지농장 '초비상'...경기도 아프리카돼지열병 잇따라 발생 10aT, 저탄소 식생활 ‘글로벌 그린푸드 데이’ 비전 선포 포토뉴스 파노라마 '영광군' 제38회 전라남도 한우경진대회 우수 시·군 선정 한우인 전국대회 성황리 개최 대한민국우수품종상 시상식 제3회 농업기술혁신포럼! 한종협-강릉축협 육종사업 '맞손' 잡아 한국마사회 '영천경마공원' 첫 삽 제주 우도 '신품종 땅콩' 수확 각양각색 '우수 장미품종’ 한자리에 농촌진흥청, 농업기술기반 공적개발원조...세계 식량확보에 기여 오영훈 제주특별자치도지사, 음식폐기물 처리시설 현장 간담회 농/업/전/망/대 더보기 농업관측센터 “마늘‧양파 재배의향 발표...마늘 전년대비 3% 증가, 양파 5% 감소” 한국농촌경제연구원(KREI, 원장 김홍상) 농업관측센터에서 실시한 2023년산 마늘‧양파 재배의향 조사 결과(9.1일자 월보), 2023년산 마늘 재배의향은 전년 대비 증가하나, 양파는 감소하였다. 2023년산 마늘 재배의향면적은 전년 대비 3.1% 증가한 24,429ha로 조사되었다. 품종별로는 한지형이 1.2%, 난지형이 3.6% 증가하는 것으로 나타났으며, 난지형 중에서 대서종이 4.6%, 남도종이 2.1% 증가하였다. 마늘 재배의향은 2022년산 수확기 가격이 높게 형성되면서 전년 대비 증가하였으나, 인건비 및 종자비 등 생산비 상승과 노동력 부족 등으로 재배의향 증가폭은 크지 않았다. 2023년산 양파 재배의향면적은 전년 대비 4.8% 감소한 16,671ha로 조사되었다. 품종별로는 조생종이 7.5%, 중만생종이 4.3% 감소하는 것으로 나타났다. 조생종 양파는 2022년산 수확기(4~5월) 가격 하락으로 중만생종 대비 감소폭이 크게 나타났다. 특히 양파의 경우, 2022년산 재고량이 전·평년보다 적은 상황으로 단경기인 내년 2~3월 수급 안정을 위해 조기 출하가 가능한 극조생종과 하우스 조생종 재배면적을 확대할 필요가 있다. 양파 재고량(8월말 기 '양파' 수급불안 조짐...수확량 4% 줄어들 전망 신유통 이슈전망...‘간편식' 먹거리 봇물 예측 2021년 농업생산액 전망... 1.9% 증가한 52조5천억원 올 전체 '농업생산액' 52조 5천억원 전망 귀농·귀촌소식 더보기 '농업경영체등록' 사전진단 서비스 시작 국립농산물품질관리원(원장 안용덕)은 농업인과 농업법인이 농업경영체 등록대상 여부를 자가진단 해볼 수 있는 ‘농업경영체등록 사전진단 서비스’를 10월 12일부터 시작한다. 농업경영체 등록제도는 농어업경영체 육성 및 지원에 관한 법률에 따라 농업인과 농업법인이 농업·농촌 관련 융자금·보조금 등을 지원받기 위해 농업경영 정보를 등록하는 제도이다. 농업경영체 등록을 위해서는 농업인과 농업법인이 농작물 재배나 가축사육·곤충사육 등과 관련된 재배 품목, 사육 규모 등의 정보를 농관원에 방문하거나 온라인으로 등록해야 한다. 농업경영체 등록을 하려는 농업인과 농업법인은 사전에 자가진단서비스를 통해 등록요건을 간편하게 확인해 볼 수 있다. - 농림사업정보시스템에서 농업인·농업법인 농업경영체 등록여부 서비스 시작 - 농작물, 가축, 곤충 등 사육정보를 농관원에 온라인으로 등록 농업경영체 자가진단 서비스는 등록대상 여부뿐만 아니라 제출서류 안내, 등록기관(농관원 지원·사무소) 등 신청에 관한 정보와 농업인과 농업법인이 농관원을 직접 방문하여 등록 자격을 확인하는 절차를 온라인으로 확인할 수 있다. 해당 서비스는 농림사업정보시스템의 ‘농업경영체등록 온라인 서비스’에 접속하여 ‘농 공공기관 기능축소!...해수부 산하기관 감축 본격화 농정원 '미래농고' 10월 17일부터 신입생 모집 한국마사회 '영천경마공원' 첫 삽 농정원장, 서울대 농식품경영유통 최고위과정 특강 눈길 신문사소개 개인정보취급방침 이메일 무단수집거부 문의하기 윤리강령 편집자문위원회 독자권익위원회 재난보도준칙 자살예방보도 청소년보호정책 기사제보 서울시 서초구 강남대로369 에셋타워|전화02-521-4007 신문등록 2011.4 서울 다50581 네이버/구글/다음포털 뉴스검색제휴사 한국전문신문협회|(사)ABC협회 회원사| 인터넷신문위원회 인증|청소년보호책임자 박시경| 국제표준간행물 ISSN 2636-0225 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 공석된 회장 보궐선거 절차 돌입 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 공석된 회장 보궐선거 절차 돌입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회, 공석된 회장 보궐선거 절차 돌입 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.10.08 10:24 댓글 4 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 지난 7일 협회 임시 이사회 열려...회장 선출 '선거관리위원회' 구성 제주도관광협회가 사용하는 제주종합비즈니스센터.제주도관광협회 김영진 회장이 총선출마를 이유로 사퇴하면서 관광협회가 차기 회장 선출을 위한 절차에 돌입했다. 8일 관광협회에 따르면 지난 7일 오전 11시 제주종합비즈니스센터 대회의실에서 임시 이사회를 열어 차기 회장 보궐선거를 위한 '선거관리위원회 구성의 안'을 의결했다.  선관위는 관광협회 자문위원장(김동완 주식회사 미래제주 회장)이 선거관리위원장을 맡으며, 고문변호사와 상근이사 등 총 7명의 위원으로 구성됐다.  관광협회 선거관리 규정에 따르면 선거일 30일 전에 선관위를 구성해야 한다. 선관위가 구성된 날로부터 30일 이내에 선거를 치러야 한다는 얘기다.  이에 따라 회장 선출을 위한 관광협회 대의원 총회는 선관위가 구성된 10월 7일 기준으로 30일 뒤인 11월7일쯤 개최될 것으로 예상된다.  후보자 모집은 대의원 총회 개최일 10일 전에 공고된다. 관광협회 대의원 총회가 11월7일 열린다면 후보자 모집은 10월 28일 공고될 전망이다.  관광협회장은 대의원총회에서 간접선거로 선출되며, 정관에 따른 대의원은 당연직 48명을 포함한 180명 이내로 구성된다. 당연직이 아닌 대의원은 각 업종별 회원수와 회비 납부실적 비율, 협회 기여도 등에 따라 이사회에서 결정된다.  회장의 임기는 3년이며, 3회에 한해 연임할 수 있다.  보궐선거 당선자는 전임 김 회장의 원래 임기인 2021년 2월까지 잔여 임기를 맡게 된다.  만일 보궐선거 당선자가 1년여 잔여 임기 이후 2차례 연임에 성공할 경우 최대 2027년 2월까지 회장직을 수행할 수 있다.  이와 관련해 협회 관계자는 “어제(7일) 임시 이사회에서 선관위 구성 안건이 의결돼 오는 11월7일쯤 회장 선출을 위한 대의원총회 개최를 예정하고 있다”고 말했다.  한편, 협회 안팎에서는 차기 회장 선거에 고승철(58) (주)삼영관광 일출랜드 대표이사와 부동석(54) 중문덤장 대표(가나다 순)의 출마가 거론된다.  협회 부회장을 맡고 있는 고 대표와 부 대표는 각각 관광지업분과위원장과 외식분과위원장을 맡고 있다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 관광통역안내사 면접대비반 수강생 모집 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, 관광통역안내사 면접대비반 수강생 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사, 관광통역안내사 면접대비반 수강생 모집 기자명 이세연 기자 입력 2019.10.08 11:38 수정 2019.10.08 12:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광공사 J-Academy 페이지제주도와 제주관광공사(사장 박홍배)는 제주관광공사 홈페이지 내 J-Academy에서 관광통역안내사 자격증 면접대비반 수강생을 모집하고 있다고 8일 밝혔다.이번 면접대비반에서는 한국관광통역안내사 자격증 취득 마지막 과정인 최종 면접을 위한 발음 및 문장 교정, 시사 및 관광면접 대비 등의 교육을 진행한다.면접대비반은 한국어와 영어 두 강의로 운영하며 중국어 면접대비반의 경우 주말반을 추가 개설했다.교육 기간은 주중반의 경우 오는 21일부터 다음달 21까지며 주말반의 경우 오는 19일부터 다음달 17일까지다.교육 수강생은 다음달 23일 시행 예정인 관광통역안내사 면접시험에 응시해야 한다.관광통역사 자격증 필기시험 대비반 수료생은 이번 교육 신청에서 우선 선발 혜택이 주어진다. 이세연 기자 leese010@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 효리의단골집 ‘이조은식당’ 밥도둑 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 연예인들의 숨은 단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 전국체육대회 연계 관광 홍보관 운영 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광협회, 전국체육대회 연계 관광 홍보관 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광협회, 전국체육대회 연계 관광 홍보관 운영 기자명 이세연 기자 입력 2019.10.07 11:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 도관광협회는 서울시에서 개최하는 제100회 전국체육대회와 연계해 지난 4일부터 오는 10일까지 제주관광 홍보관을 운영하고 있다.제주관광 홍보관에서는 제58회 탐라문화제, 2019 제주올레걷기축제 등과 제주의 가을·겨울철 즐길거리를 홍보하고 제주 캐릭터 열쇠고리 만들기와 골프퍼팅 핀볼게임 등 시민 참여형 체험 이벤트를 진행한다.도와 관광협회는 2019 제주여행 소셜 콘텐츠 공모전 진행 및 메가쇼 2019 시즌2 등 주요 박람회 참가 홍보 등을 지속해 제주 방문을 유도할 예정이다. 이세연 기자 leese010@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 [전문] 이경용 제주도의회 문화관광체육위원장, 행정사무감사 임하는 입장 편집팀 iheadline@hanmail.net 승인 2019.10.14 18:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 이경용 위원장. ⓒ헤드라인제주 도민 경제에 가장 많은 영향을 주고 있는 관광분야에서는 관광산업에 대한 집행부의 실행과제와 실적을 검토하면서, 특히, 지속적으로 1천 4백만명 가까운 관광객 유입에도 불구하고 어려움을 겪고 있는 관광산업의 현실과 질적관광을 표방하며 내국인 관광객을 포함한 관광 다변화 정책의 문제점 등을 다루고자 한다.또한 대규모 개발사업의 대한 도민 이익 차원의 검토가 지속적으로 이루어질 것이다. 문화분야에서는 생활문화를 추구하는 정부기조에 따른 제주도 문화정책의 변화와 도민 및 예술인에 대한 현실성 있는 대응을 점검하고자 한다. 또한, 양 행정시가 진행 중인 문화도시선정사업에 대한 도의회 지원차원의 검토가 있을 것이다. 체육분야에서는 도민 생활 밀접성이 높아지는 생활체육 및 전문체육에 대한 전반적 검토를 통해 체육 인프라 및 정책의 적정성을 검토하며, 평화협력 분야에서는 제주포럼을 비록한 제주의 평화협력사업에 대한 논의도 진행할 예정이다.제주의 가치와 고유성을 지키는 세계유산분야에서는 한라산을 비롯한 주요 문화재에 대한 보존 및 활용에 대한 검토가 있을 예정이다. 단순히 보존적 측면을 넘어 현시대에 맞게 도민과 호흡하는 살아있는 정책 논의를 하고자 한다. 제주의 문화, 관광, 체육 및 세계유산은 제주의 가치를 말해주는 기본이자 가치이며, 제주 경제 및 제주다움의 기본이 되는 핵심 분야로 이번 행정사무감사를 통해서 변화하는 시대가치에 대한 적정한 정책변화와 도민체감을 최우선적으로 점검하고자 한다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회, 16일 행정사무감사 돌입...고강도 감사 예고 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 옥돔구이 서비스로 가볼만한 곳 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 옥돔구이 서비스로 가볼만한 곳 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 문어해물갈치조림에 옥돔구이 서비스로 가볼만한 곳 곽종현 기자 승인 2019.10.10 11:30 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도에는 360여 개 오름이 있지만, 규모나 형태 면에서 산방산과 성산일출봉이 가장 독특하다. 제주도 형성 시기를 볼 때 초기에 해당하는 70~120만 년 전에 점성이 강한 조면암질 마그마가 현재 서귀포 안덕해안 즉 산방산이 있는 곳을 따라 집중적으로 분출되었다. 이 당시 만들어진 종상화산으로 현재 서귀포 앞 바다에 있는 것이 문섬, 범섬, 섶섬이고 육지에 있는 것이 지금의 산방산이다. 높이가 395m나 되는 산방산은 제주도에서 가장 평탄한 사계리 한가운데 우뚝 솟아 있어 멀리서도 잘 보인다. 천연기념물 제376호로 지정된 산방산은 전형적인 종모양의 산이며, 남쪽 중앙에 해식동굴인 산방굴이 있다. 산방산은 관광지로 알려진 제주도를 대표하는 손꼽히는 명소로 자리매김하고 있다. 제주도 가볼만한 곳으로는 용두암, 섭지코지, 우도, 천지연폭포, 하도리 철새도래지 등 다양한 볼거리가 있다. 또한 10월 제주도 가볼만한 곳으로는 산굼부리, 영주산, 금백조로, 마노르블랑 등이 있어 가을 정취를 만끽하기에 좋으며, 다양한 맛집도 있어 먹거리 탐방도 가능하다. 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 문어해물갈치조림이 대표 메뉴다. 이 요리는 제주 인근 바다에서 잡은 싱싱한 은갈치를 통으로 넣어 요리하며, 문어, 생전복, 새우 등의 해산물이 함께 요리되어 나오기 때문에 해산물을 푸짐하게 먹을 수 있다. 게다가 약초로 숙성한 천연 양념을 사용하여 해산물의 비린 냄새를 잡기 때문에 건강에도 좋아 양념과 밥을 비벼 먹는 이들이 많다. 비린 냄새가 없고 맛이 고소하고 담백하여 누구나 좋아하는 메뉴다. 제주 중문 맛집 기원뚝배기는 다른 식당과 달리 식당 입구에 수족관을 두고 있다. 횟집에나 있을 법한 수족관을 둔 것은 해산물 요리 주문이 들어오면 살아 있는 신선한 재료를 사용하기 위해서며, 요리의 맛을 좋게 하려면 신선한 재료를 사용하는 것이 필수이기 때문이다. 문어해물갈치조림에는 옥돔구이와 성게국을 서비스로 제공하며, 통갈치조림정식 A세트를 주문하면 옥돔구이와 성게국을 하나씩 추가로 더 제공하고 있다. 또한 서귀포 맛집 기원뚝배기에서는 갈치조림만 주문해도 생전복이 서비스로 제공되어 나온다. 밑반찬 맛도 좋다. 제주도 맛집 기원뚝배기는 매일 직접 밑반찬을 만들고 있다. 국내산 재료를 구입하여 전라도 엄마의 손맛과 정성을 담아 만든 밑반찬 맛이 좋아 여행 기간 동안 재방문하는 손님도 많다. 제주 맛집 기원뚝배기는 가족이 먹는다는 마음으로 정성을 담아 요리하고 있으며, 오전 7시부터 오후 10시까지 연중무휴로 손님을 맞이하고 있다. 그리고 여러 가지 아침 식사 메뉴를 준비하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있는데 특히 전복뚝배기는 10가지 메뉴를 넣고 끓여 맛이 시원하고 얼큰하여 해장 메뉴로 많이 찾고 있다. 한편, 기원뚝배기는 무료 셔틀버스 운행을 통해 손님들에게 픽업 서비스를 영업시간 동안 제공하고 있다. 또한 식당 옆에는 전용 주차장도 마련되어 있어 주차가 편리하다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-11 13:10 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 투데이단신 투데이단신 제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 김태연 기자/조해리 기자 승인 2019.10.09 12:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광공사, 10월 19일 제주도 추자도 무료 승선이벤트 개최..추자도 가족 낚시대회 개최 천고마비의 계절 가을을 맞이하여 볼거리, 즐길거리, 먹을거리가 가득한 추자도에서 무료승선이벤트가 진행된다. 제주관광공사(사장 박홍배)와 씨월드고속훼리주식회사(대표이사 이혁영)는 오는 10월 19일 제주↔추자 간 운항선인 ‘퀸스타2호’에 제주도민 100명을 대상으로 무료 승선 이벤트를 실시한다고 밝혔다. 씨월드고속훼리주식회사의 ▲제주↔추자↔우수영 구간을 운항하고 있는 ‘퀸스타 2호(정원 444명)’는 제주~추자를 1시간에 운항하는 쾌속선으로 이번 무료 승선 이벤트는 제주↔추자 구간만 적용된다. 가을을 맞이하여 볼거리, 즐길거리, 먹을거리가 가득한 추자도를 널리 알리고자 여객선사와 공동으로 마련한 이번 행사에는 추자도를 찾는 제주도민에게 특별한 혜택이 제공된다. 10월 19일 추자도 방문을 원하는 제주도민 선착순 100명에게 무료 승선의 기회가 주어진다. 퀸스타 2호의 제주출항 시각은 오전 9시 30분이며, 제주로 돌아오는 해당 여객선의 추자도 출항 시각은 오후 4시 30분(제주도착 오후 5시 30분)이다.(현지 기상 악화 시 연기 및 취소 될 수 있음) 추자도 무료승선 이벤트와 함께 10월 19일 추자도를 방문하는 관광객 및 도민들 대상으로 다양한 프로그램이 마련되어 운영된다. 우선 지난 6월, 8월에 이어서 이번 10월에 추자도 가족 낚시대회가 개최된다. 이번 무료 승선 이벤트에는 누구나(단체 및 추자 도서민 제외) 신청 가능하며, 10월 8일 10시부터 씨월드고속훼리 제주사업본부로 예약하면 된다. 이와 관련, 추자면지역주민관광협의회 황상일 위원장은 “천고마비의 계절 가을을 맞이하여 추자도에서 다양한 즐길거리를 즐기고, 맛있는 추자도의 음식을 마음껏 즐기시기를 바란다” 고 밝혔다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자/조해리 기자 다른기사 보기 [관련기사] LG전자, 고성능 노트북 울트라기어17로 만든 ‘엘라’ 공개하며 디지털캠페인 진행 아파트멘터리, ‘라이프구스’ 모델로 방송인 김나영 발탁 한세실업, 세계 1위 섬유 단과대 윌슨 칼리지와 산학협력 MOU 체결 현대HDS, 아마존웹서비스에 망연계솔루션 등록 한국지방행정연구원, 개원 35주년 기념세미나 개최 낙원악기상가, 로맨틱 영화와 재즈 콘서트 개최 [빅데이터 분석]“걸그룹 개인 브랜드평판 2019년 9월 빅데이터 분석결과... 1위 마마무 화사, 2위 소년시대 태연, 3위 레드벨벳 아이린” 예스24, 창립 20주년 맞아 한글날 예스24 서체 무료 배포 현대자동차, 두산퓨얼셀과 수소연료전지 분산발전시스템 실증 위한 상호협력 MOU 체결 LG전자, 2019년 3분기 잠정실적 발표 많이 본 뉴스 1해시드, 블록체인 인재 양성소 커뮤니티 ‘프로토콜 캠프’ 3기 활동 시작 2MNB글로벌-KDE, 팝 아티스트 찰스장과 NFT 발행 3온더(Onther), 전체 인력 중 46% 이더리움 콘퍼런스 Devcon 참석 4보라네트워크, 합작 P2E 프로젝트 '보라배틀' 온보딩 발표 5오지스, BPMG와 공식 파트너십 체결하며 시너지 강화 6메타마인 재단, 글로벌 거래소 디지 파이넥스에 'MTMN' 상장 7LiveArt, 첫 NFT 시리즈 작품 ‘메타모픽 요변의 스톤 genesis’ 출시 발표 8Crurated, NFT 기술이 지원하는 배럴 조각 판매를 제공 9비피엠지, 오지스와 기술 및 사업 협력 파트너십 10티아 인베스트먼트, 빅데이터 알고리즘 활용한 ‘TIA 트레이더’ 도입 최신기사 EU 경제위원회, 암호화폐 법안 MiCA 승인 11일 시장동향 .. 약세장세 지속에도 비트코인 채굴 난도는 대폭 상승 · 평균 해시레이트 250 EH/s를 웃돈다 등 미스블록, 덴티움과 MOU... 임플란트 인증서 NFT 형태로 발행 싱가포르 금융당국 “스테이블코인이 국경간 결제 효율화에 기여” 디파이 플랫폼 Transit Swap 해킹범 유출액의 70% 이상 반환 폴리곤, L2 ‘Polygonzk EVM’ 퍼블릭 테스트넷 출시 세계 최대 모터스포츠 F1, 암호화폐 관련 상표 출원 블룸버그 : 포르투갈, 1년 미만에 구매된 암호화폐 이득에 대해 과세 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 칼칼한 갈치조림 제공하는 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
   </si>
   <si>
     <t>제주도 성산일출봉맛집 표선 세화해녀의 집, 제주허브동산 핑크뮬리 축제 관광객 몰려 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 성산일출봉맛집 표선 세화해녀의 집, 제주허브동산 핑크뮬리 축제 관광객 몰려 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 성산일출봉맛집 표선 세화해녀의 집, 제주허브동산 핑크뮬리 축제 관광객 몰려 김영준 기자 승인 2019.10.06 15:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 표선 세화해녀의 집 제공 제주허브동산에서 지난 20일부터 시작된 핑크뮬리 축제에 대한 관심이 뜨겁다. 제주허브동산은 표선면에 위치한 곳으로 높이 10m, 둘레 300m 규모에 달하는 핑크뮬리 오름을 조성했다고 밝혔다. 특히 이 오름은 한라산의 분화구를 연상하게 하는 모양으로 평지에 펼쳐진 다른 핑크뮬리와는 달리 오름에 따라 다양하게 펼쳐진 핑크뮬리 군락에서 색다른 인생샷을 남길수 있어 화제가 되고 있다. 날씨가 맑은 경우에는 멀리 바다도 볼수 있는 것은 물론 오름 정상에는 종을 울릴 수 있는 하얀 종탑에서 각자의 소망을 기도하는 이들도 적지 않은 것으로 알려졌다. 이처럼 핑크뮬리에 대한 관심도가 높아지면서 인근에 위치한 표선에서 인지도 있는 세화해녀의 집에 대한 방문객도 늘어나는 것으로 알려졌다. 세화해녀의 집은 아침에도 해물뚝배기, 전복죽, 성게 미역국 등의 식사까지 가능하여 언제 어느때에 방문해도 식사가 가능한 성산일출봉맛집이다. 지역 주민에게도 인지도 있는 곳으로 특히 담백하면서도 탱글하고 쫀득한 맛이 매력적인 대광어가 대표적이다. 표선맛집 세화해녀의집은 대광어물회를 제주도에서 최초로 선보인 곳으로 일찍이 KBS2TV 생생정보통 등 여러 매체에 방영된 집이다. 이 곳에서 사용되는 대광어는 크기가 큰 것이 8자에 달하는 것은 물론 무게도 무려 5kg정도에 달한다. 전체적이 표면이 매끄럽고 살이 투명하며 붉은빛이 도는 흰색으로 신선한 대광어를 사용해 만든 물회를 제공하기에 큼직하고 푸짐하게 썰어 씹는 맛과 먹는 맛, 포만감의 3박자를 갖추었다고 평가받는다. 대광어는 광어의 비릿한 맛이 적어 회 초심자도 먹기 좋은 국민횟감으로 고단백, 저지방, 저칼로리로 부드럽고 소화가 잘되는 것은 물론 남녀노소 누구에게나 사랑받는 음식이다. 때문에 광어를 좋아하는 이들에겐 8자에 달하는 대광어만을 사용해 만드는 대광어물회는 물회를 선호하는 이들에게 찬사를 듣는 것으로 알려져 있다. 뿐만아니라 한치물회, 전복성게물회와 같이 다양한 물회를 제공하며 특히 식사 메뉴 중 제주산 오분자기가 가득 들어간 오분작 해물뚝배기는 음식의 빛깔과 향, 맛의 삼박자를 갖추어 성산일출봉맛집으로도 엄지를 치켜세우는 이들이 적지 않다. 또한 여름 휴가철을 맞아 숙소 등에 대한 고민을 덜 수 있도록 주변에는 해비치 리조트와 샤인빌 리조트도 위치해 휴가를 즐기기에 딱 맞는 곳으로 잘 알려져 있다. 성산일출봉맛집 세화해녀의집 관계자는 "대광어물회, 대광어회덮밥과 같이 고객 분들의 입맛을 즐겁게 할 수 있는 신메뉴 출시를 지속적으로 하는 것은 물론이고 사시사철 즐길 수 있는 갈치조림, 옥돔구이, 성게미역국, 고등어구이 등 제주도를 찾아주시는 분들이라면 즐겨 드시는 다양한 식사메뉴를 갖추기 위해 노력하겠다. 이를 바탕으로 찾아주시는 모든 분들께 바다를 보며 즐기는 풍요로운 식사를 제공할 것”이라고 전했다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영준 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
   </si>
   <si>
-    <t>효리의단골집 제주도 중문 관광단지 맛집 ’이조은식당’ 제주갈치의 3단변신 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ’이조은식당’ 제주갈치의 3단변신 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
   </si>
 </sst>
 </file>
@@ -437,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +741,441 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
